--- a/Config/RFC.xlsx
+++ b/Config/RFC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C05791-8BC2-A141-B8BA-4C720E638672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD653D4-7EC1-324D-811E-5B6C411D56A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27420" windowHeight="16000" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="673" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AT - Test Suite" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="355">
   <si>
     <t>Description</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>MT</t>
+  </si>
+  <si>
+    <t>User should be directed to Contact Us page.</t>
   </si>
 </sst>
 </file>
@@ -1552,6 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1585,7 +1589,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,7 +1875,7 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
@@ -1887,20 +1890,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2495,11 +2498,11 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
     </row>
     <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
@@ -2807,16 +2810,16 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="43" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2915,8 +2918,8 @@
   </sheetPr>
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView topLeftCell="B238" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView tabSelected="1" topLeftCell="B247" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2951,14 +2954,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2977,14 +2980,14 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -3015,14 +3018,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -3084,14 +3087,14 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" s="26" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -3143,14 +3146,14 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" s="26" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -3217,14 +3220,14 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -3261,14 +3264,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
@@ -3303,14 +3306,14 @@
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
@@ -3345,14 +3348,14 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
     </row>
     <row r="31" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
@@ -3387,14 +3390,14 @@
       <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
@@ -3429,14 +3432,14 @@
       <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
     </row>
     <row r="37" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
@@ -3469,14 +3472,14 @@
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
@@ -3507,14 +3510,14 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15">
@@ -3558,14 +3561,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
     </row>
     <row r="47" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15">
@@ -3620,14 +3623,14 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B52" s="15">
@@ -3695,14 +3698,14 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
     </row>
     <row r="58" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B58" s="15">
@@ -3746,14 +3749,14 @@
       </c>
     </row>
     <row r="61" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
     </row>
     <row r="62" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="29"/>
@@ -3812,14 +3815,14 @@
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="29"/>
@@ -3892,14 +3895,14 @@
       <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
     </row>
     <row r="73" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B73" s="15">
@@ -3930,14 +3933,14 @@
       </c>
     </row>
     <row r="75" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
     </row>
     <row r="76" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B76" s="15">
@@ -3979,14 +3982,14 @@
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
     </row>
     <row r="80" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B80" s="15">
@@ -4028,14 +4031,14 @@
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
     </row>
     <row r="84" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -4077,14 +4080,14 @@
       </c>
     </row>
     <row r="87" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="48" t="s">
+      <c r="A87" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
     </row>
     <row r="88" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
@@ -4143,14 +4146,14 @@
       <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
     </row>
     <row r="93" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
@@ -4209,14 +4212,14 @@
       <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
     </row>
     <row r="98" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B98" s="15">
@@ -4323,14 +4326,14 @@
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="28"/>
@@ -4459,14 +4462,14 @@
       <c r="F115" s="28"/>
     </row>
     <row r="116" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="48" t="s">
+      <c r="A116" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
     </row>
     <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B117" s="15">
@@ -4586,14 +4589,14 @@
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="49" t="s">
+      <c r="A126" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="B126" s="49"/>
-      <c r="C126" s="49"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="49"/>
-      <c r="F126" s="49"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
     </row>
     <row r="127" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B127" s="15">
@@ -4637,14 +4640,14 @@
       </c>
     </row>
     <row r="130" spans="1:6" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="51" t="s">
+      <c r="A130" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="B130" s="52"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="53"/>
+      <c r="F130" s="53"/>
     </row>
     <row r="131" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B131" s="15">
@@ -4699,14 +4702,14 @@
       <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="51" t="s">
+      <c r="A135" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="B135" s="52"/>
-      <c r="C135" s="52"/>
-      <c r="D135" s="52"/>
-      <c r="E135" s="52"/>
-      <c r="F135" s="52"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
     </row>
     <row r="136" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B136" s="15">
@@ -4761,14 +4764,14 @@
       <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="49" t="s">
+      <c r="A140" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="B140" s="49"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="49"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="49"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
     </row>
     <row r="141" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B141" s="15">
@@ -4812,14 +4815,14 @@
       </c>
     </row>
     <row r="144" spans="1:6" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="51" t="s">
+      <c r="A144" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="B144" s="52"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="52"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="53"/>
+      <c r="F144" s="53"/>
     </row>
     <row r="145" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B145" s="15">
@@ -4874,14 +4877,14 @@
       <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="45" t="s">
+      <c r="A149" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="B149" s="46"/>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="47"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="47"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="48"/>
     </row>
     <row r="150" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16"/>
@@ -4940,14 +4943,14 @@
       <c r="F153" s="17"/>
     </row>
     <row r="154" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="49" t="s">
+      <c r="A154" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="B154" s="49"/>
-      <c r="C154" s="49"/>
-      <c r="D154" s="49"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="49"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
     </row>
     <row r="155" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B155" s="15">
@@ -4991,14 +4994,14 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="45" t="s">
+      <c r="A158" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="B158" s="46"/>
-      <c r="C158" s="46"/>
-      <c r="D158" s="46"/>
-      <c r="E158" s="46"/>
-      <c r="F158" s="47"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="47"/>
+      <c r="F158" s="48"/>
     </row>
     <row r="159" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16"/>
@@ -5057,14 +5060,14 @@
       <c r="F162" s="17"/>
     </row>
     <row r="163" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="45" t="s">
+      <c r="A163" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="B163" s="46"/>
-      <c r="C163" s="46"/>
-      <c r="D163" s="46"/>
-      <c r="E163" s="46"/>
-      <c r="F163" s="47"/>
+      <c r="B163" s="47"/>
+      <c r="C163" s="47"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="48"/>
     </row>
     <row r="164" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16"/>
@@ -5123,14 +5126,14 @@
       <c r="F167" s="17"/>
     </row>
     <row r="168" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="49" t="s">
+      <c r="A168" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="B168" s="49"/>
-      <c r="C168" s="49"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
+      <c r="B168" s="50"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
     </row>
     <row r="169" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
@@ -5184,14 +5187,14 @@
       </c>
     </row>
     <row r="173" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="45" t="s">
+      <c r="A173" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="B173" s="46"/>
-      <c r="C173" s="46"/>
-      <c r="D173" s="46"/>
-      <c r="E173" s="46"/>
-      <c r="F173" s="47"/>
+      <c r="B173" s="47"/>
+      <c r="C173" s="47"/>
+      <c r="D173" s="47"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="48"/>
     </row>
     <row r="174" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A174" s="16"/>
@@ -5250,14 +5253,14 @@
       <c r="F177" s="17"/>
     </row>
     <row r="178" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="45" t="s">
+      <c r="A178" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="B178" s="46"/>
-      <c r="C178" s="46"/>
-      <c r="D178" s="46"/>
-      <c r="E178" s="46"/>
-      <c r="F178" s="47"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="47"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="48"/>
     </row>
     <row r="179" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A179" s="16"/>
@@ -5316,14 +5319,14 @@
       <c r="F182" s="17"/>
     </row>
     <row r="183" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="45" t="s">
+      <c r="A183" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="B183" s="46"/>
-      <c r="C183" s="46"/>
-      <c r="D183" s="46"/>
-      <c r="E183" s="46"/>
-      <c r="F183" s="47"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="47"/>
+      <c r="D183" s="47"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="48"/>
     </row>
     <row r="184" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A184" s="16"/>
@@ -5382,14 +5385,14 @@
       <c r="F187" s="17"/>
     </row>
     <row r="188" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="49" t="s">
+      <c r="A188" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="B188" s="49"/>
-      <c r="C188" s="49"/>
-      <c r="D188" s="49"/>
-      <c r="E188" s="49"/>
-      <c r="F188" s="49"/>
+      <c r="B188" s="50"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
     </row>
     <row r="189" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B189" s="15">
@@ -5472,14 +5475,14 @@
       </c>
     </row>
     <row r="195" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="45" t="s">
+      <c r="A195" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="B195" s="46"/>
-      <c r="C195" s="46"/>
-      <c r="D195" s="46"/>
-      <c r="E195" s="46"/>
-      <c r="F195" s="47"/>
+      <c r="B195" s="47"/>
+      <c r="C195" s="47"/>
+      <c r="D195" s="47"/>
+      <c r="E195" s="47"/>
+      <c r="F195" s="48"/>
     </row>
     <row r="196" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A196" s="16"/>
@@ -5580,14 +5583,14 @@
       <c r="F202" s="17"/>
     </row>
     <row r="203" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="49" t="s">
+      <c r="A203" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="B203" s="49"/>
-      <c r="C203" s="49"/>
-      <c r="D203" s="49"/>
-      <c r="E203" s="49"/>
-      <c r="F203" s="49"/>
+      <c r="B203" s="50"/>
+      <c r="C203" s="50"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="50"/>
     </row>
     <row r="204" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B204" s="15">
@@ -5631,14 +5634,14 @@
       </c>
     </row>
     <row r="207" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="45" t="s">
+      <c r="A207" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="B207" s="46"/>
-      <c r="C207" s="46"/>
-      <c r="D207" s="46"/>
-      <c r="E207" s="46"/>
-      <c r="F207" s="47"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="47"/>
+      <c r="D207" s="47"/>
+      <c r="E207" s="47"/>
+      <c r="F207" s="48"/>
     </row>
     <row r="208" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A208" s="16"/>
@@ -5697,14 +5700,14 @@
       <c r="F211" s="17"/>
     </row>
     <row r="212" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="49" t="s">
+      <c r="A212" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="B212" s="49"/>
-      <c r="C212" s="49"/>
-      <c r="D212" s="49"/>
-      <c r="E212" s="49"/>
-      <c r="F212" s="49"/>
+      <c r="B212" s="50"/>
+      <c r="C212" s="50"/>
+      <c r="D212" s="50"/>
+      <c r="E212" s="50"/>
+      <c r="F212" s="50"/>
     </row>
     <row r="213" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
@@ -5788,14 +5791,14 @@
       </c>
     </row>
     <row r="220" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="45" t="s">
+      <c r="A220" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="B220" s="46"/>
-      <c r="C220" s="46"/>
-      <c r="D220" s="46"/>
-      <c r="E220" s="46"/>
-      <c r="F220" s="47"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="47"/>
+      <c r="D220" s="47"/>
+      <c r="E220" s="47"/>
+      <c r="F220" s="48"/>
     </row>
     <row r="221" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A221" s="16"/>
@@ -5910,14 +5913,14 @@
       <c r="F228" s="17"/>
     </row>
     <row r="229" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="45" t="s">
+      <c r="A229" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="46"/>
-      <c r="C229" s="46"/>
-      <c r="D229" s="46"/>
-      <c r="E229" s="46"/>
-      <c r="F229" s="47"/>
+      <c r="B229" s="47"/>
+      <c r="C229" s="47"/>
+      <c r="D229" s="47"/>
+      <c r="E229" s="47"/>
+      <c r="F229" s="48"/>
     </row>
     <row r="230" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A230" s="16"/>
@@ -5990,14 +5993,14 @@
       <c r="F234" s="17"/>
     </row>
     <row r="235" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="49" t="s">
+      <c r="A235" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="B235" s="49"/>
-      <c r="C235" s="49"/>
-      <c r="D235" s="49"/>
-      <c r="E235" s="49"/>
-      <c r="F235" s="49"/>
+      <c r="B235" s="50"/>
+      <c r="C235" s="50"/>
+      <c r="D235" s="50"/>
+      <c r="E235" s="50"/>
+      <c r="F235" s="50"/>
     </row>
     <row r="236" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
@@ -6040,14 +6043,14 @@
       </c>
     </row>
     <row r="239" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="49" t="s">
+      <c r="A239" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="B239" s="49"/>
-      <c r="C239" s="49"/>
-      <c r="D239" s="49"/>
-      <c r="E239" s="49"/>
-      <c r="F239" s="49"/>
+      <c r="B239" s="50"/>
+      <c r="C239" s="50"/>
+      <c r="D239" s="50"/>
+      <c r="E239" s="50"/>
+      <c r="F239" s="50"/>
     </row>
     <row r="240" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
@@ -6162,14 +6165,14 @@
       </c>
     </row>
     <row r="248" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="49" t="s">
+      <c r="A248" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="B248" s="49"/>
-      <c r="C248" s="49"/>
-      <c r="D248" s="49"/>
-      <c r="E248" s="49"/>
-      <c r="F248" s="49"/>
+      <c r="B248" s="50"/>
+      <c r="C248" s="50"/>
+      <c r="D248" s="50"/>
+      <c r="E248" s="50"/>
+      <c r="F248" s="50"/>
     </row>
     <row r="249" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
@@ -6298,14 +6301,14 @@
       </c>
     </row>
     <row r="258" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="49" t="s">
+      <c r="A258" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B258" s="49"/>
-      <c r="C258" s="49"/>
-      <c r="D258" s="49"/>
-      <c r="E258" s="49"/>
-      <c r="F258" s="49"/>
+      <c r="B258" s="50"/>
+      <c r="C258" s="50"/>
+      <c r="D258" s="50"/>
+      <c r="E258" s="50"/>
+      <c r="F258" s="50"/>
     </row>
     <row r="259" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
@@ -6322,14 +6325,14 @@
       </c>
     </row>
     <row r="260" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="49" t="s">
+      <c r="A260" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="B260" s="49"/>
-      <c r="C260" s="49"/>
-      <c r="D260" s="49"/>
-      <c r="E260" s="49"/>
-      <c r="F260" s="49"/>
+      <c r="B260" s="50"/>
+      <c r="C260" s="50"/>
+      <c r="D260" s="50"/>
+      <c r="E260" s="50"/>
+      <c r="F260" s="50"/>
     </row>
     <row r="261" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
@@ -6374,14 +6377,14 @@
       </c>
     </row>
     <row r="264" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="50" t="s">
+      <c r="A264" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="B264" s="50"/>
-      <c r="C264" s="50"/>
-      <c r="D264" s="50"/>
-      <c r="E264" s="50"/>
-      <c r="F264" s="50"/>
+      <c r="B264" s="51"/>
+      <c r="C264" s="51"/>
+      <c r="D264" s="51"/>
+      <c r="E264" s="51"/>
+      <c r="F264" s="51"/>
     </row>
     <row r="265" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
@@ -6394,7 +6397,7 @@
         <v>163</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>95</v>
+        <v>354</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -6415,14 +6418,14 @@
       </c>
     </row>
     <row r="267" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="49" t="s">
+      <c r="A267" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="B267" s="49"/>
-      <c r="C267" s="49"/>
-      <c r="D267" s="49"/>
-      <c r="E267" s="49"/>
-      <c r="F267" s="49"/>
+      <c r="B267" s="50"/>
+      <c r="C267" s="50"/>
+      <c r="D267" s="50"/>
+      <c r="E267" s="50"/>
+      <c r="F267" s="50"/>
     </row>
     <row r="268" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
@@ -6456,14 +6459,14 @@
       </c>
     </row>
     <row r="270" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="49" t="s">
+      <c r="A270" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B270" s="49"/>
-      <c r="C270" s="49"/>
-      <c r="D270" s="49"/>
-      <c r="E270" s="49"/>
-      <c r="F270" s="49"/>
+      <c r="B270" s="50"/>
+      <c r="C270" s="50"/>
+      <c r="D270" s="50"/>
+      <c r="E270" s="50"/>
+      <c r="F270" s="50"/>
     </row>
     <row r="271" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
@@ -6497,14 +6500,14 @@
       </c>
     </row>
     <row r="273" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="49" t="s">
+      <c r="A273" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="B273" s="49"/>
-      <c r="C273" s="49"/>
-      <c r="D273" s="49"/>
-      <c r="E273" s="49"/>
-      <c r="F273" s="49"/>
+      <c r="B273" s="50"/>
+      <c r="C273" s="50"/>
+      <c r="D273" s="50"/>
+      <c r="E273" s="50"/>
+      <c r="F273" s="50"/>
     </row>
     <row r="274" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">

--- a/Config/RFC.xlsx
+++ b/Config/RFC.xlsx
@@ -8,41 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD653D4-7EC1-324D-811E-5B6C411D56A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E87A8EC-F976-0C44-A26D-5AEEBE58613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="673" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="500" windowWidth="16200" windowHeight="16280" tabRatio="673" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AT - Test Suite" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="AT - Test Case" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="AT - Test Case" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
     <definedName name="Z_26B7875D_E9B2_4779_90EE_77F4989FB450_.wvu.Rows" localSheetId="0" hidden="1">'AT - Test Suite'!$4:$6,'AT - Test Suite'!#REF!</definedName>
-    <definedName name="Z_41632795_36E3_4D40_AF2C_A770615994B7_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_5790F7CF_E168_464B_A2FF_947E3C02F48B_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_67851EC9_B5A7_459B_8A18_A6220DC7A62C_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_6C6BCC3B_4AAA_435E_8B7C_F58FB26D5F0F_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_41632795_36E3_4D40_AF2C_A770615994B7_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_5790F7CF_E168_464B_A2FF_947E3C02F48B_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_67851EC9_B5A7_459B_8A18_A6220DC7A62C_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_6C6BCC3B_4AAA_435E_8B7C_F58FB26D5F0F_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
     <definedName name="Z_7089F64A_F77B_480F_9643_8730755F04D6_.wvu.Rows" localSheetId="0" hidden="1">'AT - Test Suite'!#REF!,'AT - Test Suite'!#REF!</definedName>
-    <definedName name="Z_783535CD_F37C_46D8_9C31_F6E21BB1B5AE_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_81DA30BE_A528_467D_8AE5_A425A78D5F91_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_85509BE7_EB91_43D0_AD9F_3876D719E321_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_94CD62AC_73F4_4EEF_A82F_18B6087DF3D5_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_783535CD_F37C_46D8_9C31_F6E21BB1B5AE_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_81DA30BE_A528_467D_8AE5_A425A78D5F91_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_85509BE7_EB91_43D0_AD9F_3876D719E321_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_94CD62AC_73F4_4EEF_A82F_18B6087DF3D5_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
     <definedName name="Z_94CD62AC_73F4_4EEF_A82F_18B6087DF3D5_.wvu.Rows" localSheetId="0" hidden="1">'AT - Test Suite'!#REF!,'AT - Test Suite'!#REF!,'AT - Test Suite'!#REF!,'AT - Test Suite'!#REF!</definedName>
-    <definedName name="Z_A56A148F_9A38_4A4C_A562_E1BABBE138E8_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_A90CCA9F_984C_49EE_9182_DD209DD99BF7_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_B0A65C70_A80A_4C8E_B2D7_6B73452A114B_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_B9FAA2B8_F2EB_41E3_ACBD_1C1D784FA07A_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_BB9B48FE_E0CB_44E8_8D41_520F74799311_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_C5303581_2D9C_42C1_9BA2_807707C51816_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_D611B517_ECB2_4406_9E8E_67E409ACD724_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_D7293F56_AE1C_4EDD_BE43_9CA8C53AFC1F_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_DB520068_47DC_4A26_A6D4_9FC641BA25CD_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_E5E442FA_01B8_4E18_8013_E35F29C34A86_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_EE11C295_BE7E_4EA7_BA48_79B292CECAE2_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
-    <definedName name="Z_F7B42C1E_5F34_49FE_B022_D2B370CB837D_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_A56A148F_9A38_4A4C_A562_E1BABBE138E8_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_A90CCA9F_984C_49EE_9182_DD209DD99BF7_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_B0A65C70_A80A_4C8E_B2D7_6B73452A114B_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_B9FAA2B8_F2EB_41E3_ACBD_1C1D784FA07A_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_BB9B48FE_E0CB_44E8_8D41_520F74799311_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_C5303581_2D9C_42C1_9BA2_807707C51816_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_D611B517_ECB2_4406_9E8E_67E409ACD724_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_D7293F56_AE1C_4EDD_BE43_9CA8C53AFC1F_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_DB520068_47DC_4A26_A6D4_9FC641BA25CD_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_E5E442FA_01B8_4E18_8013_E35F29C34A86_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_EE11C295_BE7E_4EA7_BA48_79B292CECAE2_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
+    <definedName name="Z_F7B42C1E_5F34_49FE_B022_D2B370CB837D_.wvu.FilterData" localSheetId="2" hidden="1">'AT - Test Case'!$B$2:$D$23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
@@ -75,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="358">
   <si>
     <t>Description</t>
   </si>
@@ -1157,31 +1156,40 @@
     <t>User should be redirected to New Technology</t>
   </si>
   <si>
-    <t>Red Banner</t>
-  </si>
-  <si>
-    <t>Payment Confirmation</t>
-  </si>
-  <si>
-    <t>Bayan Express Add</t>
-  </si>
-  <si>
-    <t>Mobile TC's</t>
-  </si>
-  <si>
-    <t># of TC</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
     <t>User should be directed to Contact Us page.</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>TC046</t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>TC036</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,14 +1355,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1378,56 +1380,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1443,7 +1395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1484,16 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1503,12 +1446,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1555,24 +1492,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1588,6 +1512,24 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1875,42 +1817,42 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="45.1640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1927,10 +1869,10 @@
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1939,13 +1881,13 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1956,10 +1898,10 @@
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1968,13 +1910,13 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1985,15 +1927,15 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3"/>
@@ -2003,7 +1945,7 @@
       <c r="B12" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="29" t="s">
         <v>179</v>
       </c>
       <c r="D12" s="3"/>
@@ -2013,7 +1955,7 @@
       <c r="B13" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="29" t="s">
         <v>185</v>
       </c>
       <c r="D13" s="3"/>
@@ -2023,7 +1965,7 @@
       <c r="B14" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="29" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3"/>
@@ -2033,7 +1975,7 @@
       <c r="B15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="29" t="s">
         <v>308</v>
       </c>
       <c r="D15" s="3"/>
@@ -2043,37 +1985,37 @@
       <c r="B16" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="29" t="s">
         <v>239</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="29" t="s">
         <v>241</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="30" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="30" t="s">
         <v>244</v>
       </c>
       <c r="D19" s="3"/>
@@ -2082,7 +2024,7 @@
       <c r="B20" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="30" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2090,7 +2032,7 @@
       <c r="B21" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2098,7 +2040,7 @@
       <c r="B22" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="31" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2106,7 +2048,7 @@
       <c r="B23" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="31" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2114,7 +2056,7 @@
       <c r="B24" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2122,7 +2064,7 @@
       <c r="B25" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="30" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2130,7 +2072,7 @@
       <c r="B26" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2138,7 +2080,7 @@
       <c r="B27" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2146,7 +2088,7 @@
       <c r="B28" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="31" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2154,7 +2096,7 @@
       <c r="B29" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="29" t="s">
         <v>309</v>
       </c>
     </row>
@@ -2162,7 +2104,7 @@
       <c r="B30" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2170,7 +2112,7 @@
       <c r="B31" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="29" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2178,7 +2120,7 @@
       <c r="B32" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="29" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2186,7 +2128,7 @@
       <c r="B33" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2194,7 +2136,7 @@
       <c r="B34" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="29" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2202,7 +2144,7 @@
       <c r="B35" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="29" t="s">
         <v>307</v>
       </c>
     </row>
@@ -2210,7 +2152,7 @@
       <c r="B36" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2258,7 +2200,7 @@
       <c r="B42" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="37" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2266,7 +2208,7 @@
       <c r="B43" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="16" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2282,7 +2224,7 @@
       <c r="B45" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="29" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2290,7 +2232,7 @@
       <c r="B46" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="29" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2298,7 +2240,7 @@
       <c r="B47" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="29" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2306,7 +2248,7 @@
       <c r="B48" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="29" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2314,7 +2256,7 @@
       <c r="B49" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="29" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2322,7 +2264,7 @@
       <c r="B50" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="29" t="s">
         <v>312</v>
       </c>
     </row>
@@ -2330,7 +2272,7 @@
       <c r="B51" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2338,7 +2280,7 @@
       <c r="B52" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="29" t="s">
         <v>313</v>
       </c>
     </row>
@@ -2346,7 +2288,7 @@
       <c r="B53" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2354,7 +2296,7 @@
       <c r="B54" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="29" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2362,7 +2304,7 @@
       <c r="B55" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="16" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2373,38 +2315,38 @@
       <c r="B56" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2415,8 +2357,8 @@
       <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="21"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
@@ -2425,25 +2367,25 @@
       <c r="B60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="40"/>
+      <c r="C60" s="35"/>
     </row>
     <row r="61" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="40"/>
+      <c r="C61" s="35"/>
     </row>
     <row r="62" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="40"/>
+      <c r="C62" s="35"/>
     </row>
     <row r="63" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="35" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2451,7 +2393,7 @@
       <c r="B64" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2462,47 +2404,47 @@
       <c r="B65" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="3" customFormat="1" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
     </row>
     <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
@@ -2511,10 +2453,10 @@
       <c r="B69" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="21"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -2523,13 +2465,13 @@
       <c r="B70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="34"/>
+      <c r="C70" s="29"/>
     </row>
     <row r="71" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="29" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2540,10 +2482,10 @@
       <c r="B72" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="21"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
@@ -2552,13 +2494,13 @@
       <c r="B73" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="34"/>
+      <c r="C73" s="29"/>
     </row>
     <row r="74" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="29" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2569,8 +2511,8 @@
       <c r="B75" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="21"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
@@ -2579,31 +2521,31 @@
       <c r="B76" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="34"/>
+      <c r="C76" s="29"/>
     </row>
     <row r="77" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C77" s="34"/>
+      <c r="C77" s="29"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="19" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="19" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="19" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="19" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2614,38 +2556,38 @@
       <c r="B82" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C82" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2656,46 +2598,46 @@
       <c r="B85" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="24" t="s">
+      <c r="C87" s="34"/>
+      <c r="D87" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="39"/>
-      <c r="D88" s="24"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
@@ -2704,38 +2646,38 @@
       <c r="B89" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2797,94 +2739,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C67A175-FC61-EB43-8D09-6BA96301F227}">
-  <dimension ref="B7:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" s="22">
-        <v>2</v>
-      </c>
-      <c r="D8" s="22">
-        <v>2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="22">
-        <v>2</v>
-      </c>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="22">
-        <v>11</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2911,26 +2765,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B247" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="65.33203125" style="5"/>
+    <col min="1" max="1" width="37" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="65.33203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2953,15 +2807,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2979,17 +2833,17 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>316</v>
       </c>
@@ -3002,8 +2856,10 @@
       <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>316</v>
       </c>
@@ -3016,18 +2872,20 @@
       <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>317</v>
       </c>
@@ -3040,8 +2898,10 @@
       <c r="D8" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" s="46" customFormat="1" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>317</v>
       </c>
@@ -3054,11 +2914,12 @@
       <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>317</v>
       </c>
@@ -3071,9 +2932,10 @@
       <c r="D10" s="6" t="s">
         <v>179</v>
       </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>317</v>
       </c>
@@ -3084,19 +2946,20 @@
         <v>180</v>
       </c>
       <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" s="26" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+    <row r="12" spans="1:6" s="49" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>318</v>
       </c>
@@ -3112,7 +2975,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>318</v>
       </c>
@@ -3130,7 +2993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>318</v>
       </c>
@@ -3143,19 +3006,20 @@
       <c r="D15" s="6" t="s">
         <v>179</v>
       </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" s="26" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:6" s="49" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>321</v>
       </c>
@@ -3171,7 +3035,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>321</v>
       </c>
@@ -3189,7 +3053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>321</v>
       </c>
@@ -3202,9 +3066,10 @@
       <c r="D19" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>321</v>
       </c>
@@ -3217,17 +3082,18 @@
       <c r="D20" s="6" t="s">
         <v>185</v>
       </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -3263,263 +3129,264 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="25">
         <v>1</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="25">
         <v>2</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="25">
         <v>1</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="25">
         <v>2</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="25">
         <v>1</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="25">
         <v>2</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="25">
         <v>1</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="25">
         <v>2</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="25">
         <v>1</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25">
         <v>2</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25">
         <v>1</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25">
         <v>2</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
       <c r="B43" s="15">
         <v>1</v>
       </c>
@@ -3533,6 +3400,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
       <c r="B44" s="15">
         <v>2</v>
       </c>
@@ -3546,6 +3414,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
       <c r="B45" s="15">
         <v>3</v>
       </c>
@@ -3560,17 +3429,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
       <c r="B47" s="15">
         <v>1</v>
       </c>
@@ -3584,6 +3454,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
       <c r="B48" s="15">
         <v>2</v>
       </c>
@@ -3597,6 +3468,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
       <c r="B49" s="15">
         <v>3</v>
       </c>
@@ -3610,6 +3482,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
       <c r="B50" s="15">
         <v>4</v>
       </c>
@@ -3622,17 +3495,18 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+    <row r="51" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
       <c r="B52" s="15">
         <v>1</v>
       </c>
@@ -3646,6 +3520,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
       <c r="B53" s="15">
         <v>2</v>
       </c>
@@ -3659,6 +3534,7 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
       <c r="B54" s="15">
         <v>3</v>
       </c>
@@ -3672,6 +3548,7 @@
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
       <c r="B55" s="15">
         <v>4</v>
       </c>
@@ -3685,6 +3562,7 @@
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
       <c r="B56" s="15">
         <v>5</v>
       </c>
@@ -3697,17 +3575,18 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
+    <row r="57" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
       <c r="B58" s="15">
         <v>1</v>
       </c>
@@ -3721,6 +3600,7 @@
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
       <c r="B59" s="15">
         <v>2</v>
       </c>
@@ -3734,6 +3614,7 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
       <c r="B60" s="15">
         <v>3</v>
       </c>
@@ -3748,163 +3629,164 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="49" t="s">
+    <row r="61" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
     </row>
     <row r="62" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30">
+      <c r="A62" s="24"/>
+      <c r="B62" s="25">
         <v>1</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30">
+      <c r="A63" s="24"/>
+      <c r="B63" s="25">
         <v>2</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30">
+      <c r="A64" s="24"/>
+      <c r="B64" s="25">
         <v>3</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
     </row>
     <row r="65" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
-      <c r="B65" s="30">
+      <c r="A65" s="24"/>
+      <c r="B65" s="25">
         <v>4</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="49" t="s">
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
     </row>
     <row r="67" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30">
+      <c r="A67" s="24"/>
+      <c r="B67" s="25">
         <v>1</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
     </row>
     <row r="68" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30">
+      <c r="A68" s="24"/>
+      <c r="B68" s="25">
         <v>2</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
     </row>
     <row r="69" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30">
+      <c r="A69" s="24"/>
+      <c r="B69" s="25">
         <v>3</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30">
+      <c r="A70" s="24"/>
+      <c r="B70" s="25">
         <v>4</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25">
         <v>5</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-    </row>
-    <row r="72" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+    </row>
+    <row r="72" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
     </row>
     <row r="73" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
       <c r="B73" s="15">
         <v>1</v>
       </c>
@@ -3918,6 +3800,7 @@
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
       <c r="B74" s="15">
         <v>2</v>
       </c>
@@ -3932,17 +3815,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="52" t="s">
+    <row r="75" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
       <c r="B76" s="15">
         <v>1</v>
       </c>
@@ -3956,6 +3840,7 @@
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
       <c r="B77" s="15">
         <v>2</v>
       </c>
@@ -3969,6 +3854,7 @@
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
       <c r="B78" s="15">
         <v>3</v>
       </c>
@@ -3981,17 +3867,18 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52" t="s">
+    <row r="79" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
       <c r="B80" s="15">
         <v>1</v>
       </c>
@@ -4005,6 +3892,7 @@
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
       <c r="B81" s="15">
         <v>2</v>
       </c>
@@ -4018,6 +3906,7 @@
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
       <c r="B82" s="15">
         <v>3</v>
       </c>
@@ -4030,15 +3919,15 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="50" t="s">
+    <row r="83" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -4051,6 +3940,8 @@
       <c r="D84" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -4063,6 +3954,8 @@
       <c r="D85" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
@@ -4075,153 +3968,155 @@
       <c r="D86" s="11" t="s">
         <v>94</v>
       </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="49" t="s">
+    <row r="87" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
     </row>
     <row r="88" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
-      <c r="B88" s="30">
+      <c r="A88" s="24"/>
+      <c r="B88" s="25">
         <v>1</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="29"/>
-      <c r="B89" s="30">
+      <c r="A89" s="24"/>
+      <c r="B89" s="25">
         <v>2</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="29"/>
-      <c r="B90" s="30">
+      <c r="A90" s="24"/>
+      <c r="B90" s="25">
         <v>3</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="29"/>
-      <c r="B91" s="30">
+      <c r="A91" s="24"/>
+      <c r="B91" s="25">
         <v>4</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-    </row>
-    <row r="92" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="49" t="s">
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+    </row>
+    <row r="92" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="29"/>
-      <c r="B93" s="30">
+      <c r="A93" s="24"/>
+      <c r="B93" s="25">
         <v>1</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
     </row>
     <row r="94" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="29"/>
-      <c r="B94" s="30">
+      <c r="A94" s="24"/>
+      <c r="B94" s="25">
         <v>2</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
-      <c r="B95" s="30">
+      <c r="A95" s="24"/>
+      <c r="B95" s="25">
         <v>3</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
     </row>
     <row r="96" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="29"/>
-      <c r="B96" s="30">
+      <c r="A96" s="24"/>
+      <c r="B96" s="25">
         <v>4</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-    </row>
-    <row r="97" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="50" t="s">
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+    </row>
+    <row r="97" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4"/>
       <c r="B98" s="15">
         <v>1</v>
       </c>
@@ -4235,6 +4130,7 @@
       <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4"/>
       <c r="B99" s="15">
         <v>2</v>
       </c>
@@ -4248,6 +4144,7 @@
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4"/>
       <c r="B100" s="15">
         <v>3</v>
       </c>
@@ -4261,6 +4158,7 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4"/>
       <c r="B101" s="15">
         <v>4</v>
       </c>
@@ -4274,6 +4172,7 @@
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4"/>
       <c r="B102" s="15">
         <v>5</v>
       </c>
@@ -4287,6 +4186,7 @@
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
       <c r="B103" s="15">
         <v>6</v>
       </c>
@@ -4300,6 +4200,7 @@
       <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4"/>
       <c r="B104" s="15">
         <v>7</v>
       </c>
@@ -4313,6 +4214,7 @@
       <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
       <c r="B105" s="15">
         <v>8</v>
       </c>
@@ -4325,18 +4227,18 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="49" t="s">
+    <row r="106" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="28"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="15">
         <v>1</v>
       </c>
@@ -4346,11 +4248,11 @@
       <c r="D107" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="28"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="15">
         <v>2</v>
       </c>
@@ -4360,11 +4262,11 @@
       <c r="D108" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="28"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="15">
         <v>3</v>
       </c>
@@ -4374,11 +4276,11 @@
       <c r="D109" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="28"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="15">
         <v>4</v>
       </c>
@@ -4388,11 +4290,11 @@
       <c r="D110" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="28"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="15">
         <v>5</v>
       </c>
@@ -4402,11 +4304,11 @@
       <c r="D111" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="28"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="15">
         <v>6</v>
       </c>
@@ -4416,11 +4318,11 @@
       <c r="D112" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="28"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="15">
         <v>7</v>
       </c>
@@ -4430,11 +4332,11 @@
       <c r="D113" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="28"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="15">
         <v>8</v>
       </c>
@@ -4444,11 +4346,11 @@
       <c r="D114" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="28"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="15">
         <v>9</v>
       </c>
@@ -4458,20 +4360,21 @@
       <c r="D115" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-    </row>
-    <row r="116" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="49" t="s">
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+    </row>
+    <row r="116" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="49"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
       <c r="B117" s="15">
         <v>1</v>
       </c>
@@ -4485,6 +4388,7 @@
       <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
       <c r="B118" s="15">
         <v>2</v>
       </c>
@@ -4498,6 +4402,7 @@
       <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
       <c r="B119" s="15">
         <v>3</v>
       </c>
@@ -4511,6 +4416,7 @@
       <c r="F119" s="4"/>
     </row>
     <row r="120" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
       <c r="B120" s="15">
         <v>4</v>
       </c>
@@ -4524,6 +4430,7 @@
       <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
       <c r="B121" s="15">
         <v>5</v>
       </c>
@@ -4537,6 +4444,7 @@
       <c r="F121" s="4"/>
     </row>
     <row r="122" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
       <c r="B122" s="15">
         <v>6</v>
       </c>
@@ -4550,6 +4458,7 @@
       <c r="F122" s="4"/>
     </row>
     <row r="123" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
       <c r="B123" s="15">
         <v>7</v>
       </c>
@@ -4563,6 +4472,7 @@
       <c r="F123" s="4"/>
     </row>
     <row r="124" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
       <c r="B124" s="15">
         <v>8</v>
       </c>
@@ -4576,6 +4486,7 @@
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4"/>
       <c r="B125" s="15">
         <v>9</v>
       </c>
@@ -4588,17 +4499,18 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="50" t="s">
+    <row r="126" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
     </row>
     <row r="127" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
       <c r="B127" s="15">
         <v>1</v>
       </c>
@@ -4612,6 +4524,7 @@
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
       <c r="B128" s="15">
         <v>2</v>
       </c>
@@ -4625,6 +4538,7 @@
       <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:6" ht="61.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4"/>
       <c r="B129" s="15">
         <v>3</v>
       </c>
@@ -4639,17 +4553,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="52" t="s">
+    <row r="130" spans="1:6" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B130" s="53"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="53"/>
-      <c r="E130" s="53"/>
-      <c r="F130" s="53"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
     </row>
     <row r="131" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4"/>
       <c r="B131" s="15">
         <v>1</v>
       </c>
@@ -4663,6 +4578,7 @@
       <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4"/>
       <c r="B132" s="15">
         <v>2</v>
       </c>
@@ -4676,6 +4592,7 @@
       <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4"/>
       <c r="B133" s="15">
         <v>3</v>
       </c>
@@ -4689,6 +4606,7 @@
       <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4"/>
       <c r="B134" s="15">
         <v>4</v>
       </c>
@@ -4701,17 +4619,18 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="52" t="s">
+    <row r="135" spans="1:6" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
     </row>
     <row r="136" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4"/>
       <c r="B136" s="15">
         <v>1</v>
       </c>
@@ -4725,6 +4644,7 @@
       <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4"/>
       <c r="B137" s="15">
         <v>2</v>
       </c>
@@ -4738,6 +4658,7 @@
       <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4"/>
       <c r="B138" s="15">
         <v>3</v>
       </c>
@@ -4751,6 +4672,7 @@
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4"/>
       <c r="B139" s="15">
         <v>4</v>
       </c>
@@ -4763,17 +4685,18 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="50" t="s">
+    <row r="140" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
     </row>
     <row r="141" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4"/>
       <c r="B141" s="15">
         <v>1</v>
       </c>
@@ -4787,6 +4710,7 @@
       <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4"/>
       <c r="B142" s="15">
         <v>2</v>
       </c>
@@ -4800,6 +4724,7 @@
       <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4"/>
       <c r="B143" s="15">
         <v>3</v>
       </c>
@@ -4814,17 +4739,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="27" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="52" t="s">
+    <row r="144" spans="1:6" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="B144" s="53"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="53"/>
-      <c r="E144" s="53"/>
-      <c r="F144" s="53"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
     </row>
     <row r="145" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4"/>
       <c r="B145" s="15">
         <v>1</v>
       </c>
@@ -4838,6 +4764,7 @@
       <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
       <c r="B146" s="15">
         <v>2</v>
       </c>
@@ -4851,6 +4778,7 @@
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
       <c r="B147" s="15">
         <v>3</v>
       </c>
@@ -4864,6 +4792,7 @@
       <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4"/>
       <c r="B148" s="15">
         <v>4</v>
       </c>
@@ -4876,83 +4805,84 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="46" t="s">
+    <row r="149" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B149" s="47"/>
-      <c r="C149" s="47"/>
-      <c r="D149" s="47"/>
-      <c r="E149" s="47"/>
-      <c r="F149" s="48"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="42"/>
     </row>
     <row r="150" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="16"/>
-      <c r="B150" s="18">
+      <c r="A150" s="24"/>
+      <c r="B150" s="25">
         <v>1</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D150" s="19" t="s">
+      <c r="D150" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
     </row>
     <row r="151" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="16"/>
-      <c r="B151" s="18">
+      <c r="A151" s="24"/>
+      <c r="B151" s="25">
         <v>2</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D151" s="19" t="s">
+      <c r="D151" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
     </row>
     <row r="152" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="16"/>
-      <c r="B152" s="18">
+      <c r="A152" s="24"/>
+      <c r="B152" s="25">
         <v>3</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="D152" s="19" t="s">
+      <c r="D152" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
     </row>
     <row r="153" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="16"/>
-      <c r="B153" s="18">
+      <c r="A153" s="24"/>
+      <c r="B153" s="25">
         <v>4</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="24" t="s">
         <v>180</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
-    </row>
-    <row r="154" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="50" t="s">
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+    </row>
+    <row r="154" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="B154" s="50"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="50"/>
-      <c r="E154" s="50"/>
-      <c r="F154" s="50"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="40"/>
     </row>
     <row r="155" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4"/>
       <c r="B155" s="15">
         <v>1</v>
       </c>
@@ -4966,6 +4896,7 @@
       <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4"/>
       <c r="B156" s="15">
         <v>2</v>
       </c>
@@ -4979,6 +4910,7 @@
       <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:6" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4"/>
       <c r="B157" s="15">
         <v>3</v>
       </c>
@@ -4993,150 +4925,160 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="46" t="s">
+    <row r="158" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="B158" s="47"/>
-      <c r="C158" s="47"/>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="48"/>
+      <c r="B158" s="42"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="42"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
     </row>
     <row r="159" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="16"/>
-      <c r="B159" s="18">
+      <c r="A159" s="24"/>
+      <c r="B159" s="25">
         <v>1</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D159" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
     </row>
     <row r="160" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="16"/>
-      <c r="B160" s="18">
+      <c r="A160" s="24"/>
+      <c r="B160" s="25">
         <v>2</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D160" s="19" t="s">
+      <c r="D160" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
     </row>
     <row r="161" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="16"/>
-      <c r="B161" s="18">
+      <c r="A161" s="24"/>
+      <c r="B161" s="25">
         <v>3</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D161" s="19" t="s">
+      <c r="D161" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="16"/>
-      <c r="B162" s="18">
+      <c r="A162" s="24"/>
+      <c r="B162" s="25">
         <v>4</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D162" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-    </row>
-    <row r="163" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="46" t="s">
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+    </row>
+    <row r="163" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B163" s="47"/>
-      <c r="C163" s="47"/>
-      <c r="D163" s="47"/>
-      <c r="E163" s="47"/>
-      <c r="F163" s="48"/>
+      <c r="B163" s="42"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="16"/>
-      <c r="B164" s="18">
+      <c r="A164" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B164" s="25">
         <v>1</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D164" s="19" t="s">
+      <c r="D164" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
     </row>
     <row r="165" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="16"/>
-      <c r="B165" s="18">
+      <c r="A165" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B165" s="25">
         <v>2</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D165" s="19" t="s">
+      <c r="D165" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
     </row>
     <row r="166" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="16"/>
-      <c r="B166" s="18">
+      <c r="A166" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B166" s="25">
         <v>3</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D166" s="19" t="s">
+      <c r="D166" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
     </row>
     <row r="167" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="16"/>
-      <c r="B167" s="18">
+      <c r="A167" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B167" s="25">
         <v>4</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D167" s="19" t="s">
+      <c r="D167" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-    </row>
-    <row r="168" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="50" t="s">
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+    </row>
+    <row r="168" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="B168" s="50"/>
-      <c r="C168" s="50"/>
-      <c r="D168" s="50"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="50"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="40"/>
     </row>
     <row r="169" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
+      <c r="A169" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="B169" s="15">
         <v>1</v>
       </c>
@@ -5146,9 +5088,13 @@
       <c r="D169" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
+      <c r="A170" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="B170" s="15">
         <v>2</v>
       </c>
@@ -5158,9 +5104,13 @@
       <c r="D170" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5"/>
+      <c r="A171" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="B171" s="15">
         <v>3</v>
       </c>
@@ -5170,8 +5120,13 @@
       <c r="D171" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="B172" s="15">
         <v>4</v>
       </c>
@@ -5186,215 +5141,242 @@
         <v>74</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="46" t="s">
+    <row r="173" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="B173" s="47"/>
-      <c r="C173" s="47"/>
-      <c r="D173" s="47"/>
-      <c r="E173" s="47"/>
-      <c r="F173" s="48"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
     </row>
     <row r="174" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="16"/>
-      <c r="B174" s="18">
+      <c r="A174" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B174" s="25">
         <v>1</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D174" s="19" t="s">
+      <c r="D174" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E174" s="17"/>
-      <c r="F174" s="17"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
     </row>
     <row r="175" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="16"/>
-      <c r="B175" s="18">
+      <c r="A175" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B175" s="25">
         <v>2</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D175" s="19" t="s">
+      <c r="D175" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E175" s="17"/>
-      <c r="F175" s="17"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
     </row>
     <row r="176" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="16"/>
-      <c r="B176" s="18">
+      <c r="A176" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B176" s="25">
         <v>3</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D176" s="19" t="s">
+      <c r="D176" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
     </row>
     <row r="177" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="16"/>
-      <c r="B177" s="18">
+      <c r="A177" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" s="25">
         <v>4</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D177" s="19" t="s">
+      <c r="D177" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
-    </row>
-    <row r="178" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="46" t="s">
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+    </row>
+    <row r="178" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B178" s="47"/>
-      <c r="C178" s="47"/>
-      <c r="D178" s="47"/>
-      <c r="E178" s="47"/>
-      <c r="F178" s="48"/>
+      <c r="B178" s="42"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="42"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
     </row>
     <row r="179" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="16"/>
-      <c r="B179" s="18">
+      <c r="A179" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" s="25">
         <v>1</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D179" s="19" t="s">
+      <c r="D179" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E179" s="17"/>
-      <c r="F179" s="17"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
     </row>
     <row r="180" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="16"/>
-      <c r="B180" s="18">
+      <c r="A180" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" s="25">
         <v>2</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D180" s="19" t="s">
+      <c r="D180" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
     </row>
     <row r="181" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="16"/>
-      <c r="B181" s="18">
+      <c r="A181" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B181" s="25">
         <v>3</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D181" s="19" t="s">
+      <c r="D181" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="E181" s="17"/>
-      <c r="F181" s="17"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="24"/>
     </row>
     <row r="182" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="16"/>
-      <c r="B182" s="18">
+      <c r="A182" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B182" s="25">
         <v>4</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D182" s="19" t="s">
+      <c r="D182" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="E182" s="17"/>
-      <c r="F182" s="17"/>
-    </row>
-    <row r="183" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="46" t="s">
+      <c r="E182" s="24"/>
+      <c r="F182" s="24"/>
+    </row>
+    <row r="183" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="B183" s="47"/>
-      <c r="C183" s="47"/>
-      <c r="D183" s="47"/>
-      <c r="E183" s="47"/>
-      <c r="F183" s="48"/>
+      <c r="B183" s="42"/>
+      <c r="C183" s="42"/>
+      <c r="D183" s="42"/>
+      <c r="E183" s="42"/>
+      <c r="F183" s="42"/>
     </row>
     <row r="184" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="16"/>
-      <c r="B184" s="18">
+      <c r="A184" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" s="25">
         <v>1</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D184" s="19" t="s">
+      <c r="D184" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E184" s="17"/>
-      <c r="F184" s="17"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="24"/>
     </row>
     <row r="185" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="16"/>
-      <c r="B185" s="18">
+      <c r="A185" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B185" s="25">
         <v>2</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D185" s="19" t="s">
+      <c r="D185" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E185" s="17"/>
-      <c r="F185" s="17"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="24"/>
     </row>
     <row r="186" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="16"/>
-      <c r="B186" s="18">
+      <c r="A186" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B186" s="25">
         <v>3</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D186" s="19" t="s">
+      <c r="D186" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="E186" s="17"/>
-      <c r="F186" s="17"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
     </row>
     <row r="187" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="16"/>
-      <c r="B187" s="18">
+      <c r="A187" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" s="25">
         <v>4</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D187" s="19" t="s">
+      <c r="D187" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="E187" s="17"/>
-      <c r="F187" s="17"/>
-    </row>
-    <row r="188" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="50" t="s">
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+    </row>
+    <row r="188" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="B188" s="50"/>
-      <c r="C188" s="50"/>
-      <c r="D188" s="50"/>
-      <c r="E188" s="50"/>
-      <c r="F188" s="50"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="40"/>
+      <c r="F188" s="40"/>
     </row>
     <row r="189" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="B189" s="15">
         <v>1</v>
       </c>
@@ -5408,6 +5390,9 @@
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="B190" s="15">
         <v>2</v>
       </c>
@@ -5421,6 +5406,9 @@
       <c r="F190" s="4"/>
     </row>
     <row r="191" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="B191" s="15">
         <v>3</v>
       </c>
@@ -5434,6 +5422,9 @@
       <c r="F191" s="4"/>
     </row>
     <row r="192" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="B192" s="15">
         <v>4</v>
       </c>
@@ -5447,6 +5438,9 @@
       <c r="F192" s="4"/>
     </row>
     <row r="193" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="B193" s="15">
         <v>5</v>
       </c>
@@ -5460,6 +5454,9 @@
       <c r="F193" s="4"/>
     </row>
     <row r="194" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="B194" s="15">
         <v>6</v>
       </c>
@@ -5474,125 +5471,142 @@
         <v>135</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="46" t="s">
+    <row r="195" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="B195" s="47"/>
-      <c r="C195" s="47"/>
-      <c r="D195" s="47"/>
-      <c r="E195" s="47"/>
-      <c r="F195" s="48"/>
+      <c r="B195" s="42"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="42"/>
+      <c r="E195" s="42"/>
+      <c r="F195" s="42"/>
     </row>
     <row r="196" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="16"/>
-      <c r="B196" s="18">
+      <c r="A196" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B196" s="25">
         <v>1</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D196" s="19" t="s">
+      <c r="D196" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E196" s="17"/>
-      <c r="F196" s="17"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="24"/>
     </row>
     <row r="197" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="16"/>
-      <c r="B197" s="18">
+      <c r="A197" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B197" s="25">
         <v>2</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D197" s="19" t="s">
+      <c r="D197" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E197" s="17"/>
-      <c r="F197" s="17"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="24"/>
     </row>
     <row r="198" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="16"/>
-      <c r="B198" s="18">
+      <c r="A198" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B198" s="25">
         <v>3</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D198" s="19" t="s">
+      <c r="D198" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="E198" s="17"/>
-      <c r="F198" s="17"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="24"/>
     </row>
     <row r="199" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="16"/>
-      <c r="B199" s="18">
+      <c r="A199" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B199" s="25">
         <v>4</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="19" t="s">
+      <c r="D199" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E199" s="17"/>
-      <c r="F199" s="17"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="24"/>
     </row>
     <row r="200" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="16"/>
-      <c r="B200" s="18">
+      <c r="A200" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B200" s="25">
         <v>5</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D200" s="19" t="s">
+      <c r="D200" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E200" s="17"/>
-      <c r="F200" s="17"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="24"/>
     </row>
     <row r="201" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="16"/>
-      <c r="B201" s="18">
+      <c r="A201" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B201" s="25">
         <v>6</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D201" s="19" t="s">
+      <c r="D201" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
     </row>
     <row r="202" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="16"/>
-      <c r="B202" s="18">
+      <c r="A202" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B202" s="25">
         <v>7</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D202" s="19" t="s">
+      <c r="D202" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="E202" s="17"/>
-      <c r="F202" s="17"/>
-    </row>
-    <row r="203" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="50" t="s">
+      <c r="E202" s="24"/>
+      <c r="F202" s="24"/>
+    </row>
+    <row r="203" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="B203" s="50"/>
-      <c r="C203" s="50"/>
-      <c r="D203" s="50"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="50"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="40"/>
+      <c r="F203" s="40"/>
     </row>
     <row r="204" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="B204" s="15">
         <v>1</v>
       </c>
@@ -5606,6 +5620,9 @@
       <c r="F204" s="4"/>
     </row>
     <row r="205" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="B205" s="15">
         <v>2</v>
       </c>
@@ -5619,6 +5636,9 @@
       <c r="F205" s="9"/>
     </row>
     <row r="206" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="B206" s="15">
         <v>3</v>
       </c>
@@ -5633,84 +5653,94 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="46" t="s">
+    <row r="207" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="B207" s="47"/>
-      <c r="C207" s="47"/>
-      <c r="D207" s="47"/>
-      <c r="E207" s="47"/>
-      <c r="F207" s="48"/>
+      <c r="B207" s="42"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
     </row>
     <row r="208" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="16"/>
-      <c r="B208" s="18">
+      <c r="A208" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B208" s="25">
         <v>1</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D208" s="19" t="s">
+      <c r="D208" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="24"/>
     </row>
     <row r="209" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="16"/>
-      <c r="B209" s="18">
+      <c r="A209" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B209" s="25">
         <v>2</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D209" s="19" t="s">
+      <c r="D209" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E209" s="17"/>
-      <c r="F209" s="17"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="24"/>
     </row>
     <row r="210" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="16"/>
-      <c r="B210" s="18">
+      <c r="A210" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B210" s="25">
         <v>3</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D210" s="19" t="s">
+      <c r="D210" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="E210" s="17"/>
-      <c r="F210" s="17"/>
+      <c r="E210" s="24"/>
+      <c r="F210" s="24"/>
     </row>
     <row r="211" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="16"/>
-      <c r="B211" s="18">
+      <c r="A211" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B211" s="25">
         <v>4</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D211" s="19" t="s">
+      <c r="D211" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="E211" s="17"/>
-      <c r="F211" s="17"/>
-    </row>
-    <row r="212" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="50" t="s">
+      <c r="E211" s="24"/>
+      <c r="F211" s="24"/>
+    </row>
+    <row r="212" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="B212" s="50"/>
-      <c r="C212" s="50"/>
-      <c r="D212" s="50"/>
-      <c r="E212" s="50"/>
-      <c r="F212" s="50"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="40"/>
+      <c r="F212" s="40"/>
     </row>
     <row r="213" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="5"/>
+      <c r="A213" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="B213" s="15">
         <v>1</v>
       </c>
@@ -5720,8 +5750,13 @@
       <c r="D213" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="B214" s="15">
         <v>2</v>
       </c>
@@ -5731,8 +5766,13 @@
       <c r="D214" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="B215" s="15">
         <v>3</v>
       </c>
@@ -5742,8 +5782,13 @@
       <c r="D215" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
     </row>
     <row r="216" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="B216" s="15">
         <v>4</v>
       </c>
@@ -5753,8 +5798,13 @@
       <c r="D216" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
     </row>
     <row r="217" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="B217" s="15">
         <v>5</v>
       </c>
@@ -5764,8 +5814,13 @@
       <c r="D217" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
     </row>
     <row r="218" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="B218" s="15">
         <v>6</v>
       </c>
@@ -5775,8 +5830,13 @@
       <c r="D218" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:6" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="B219" s="15">
         <v>7</v>
       </c>
@@ -5786,223 +5846,250 @@
       <c r="D219" s="6" t="s">
         <v>145</v>
       </c>
+      <c r="E219" s="5"/>
       <c r="F219" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="46" t="s">
+    <row r="220" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="B220" s="47"/>
-      <c r="C220" s="47"/>
-      <c r="D220" s="47"/>
-      <c r="E220" s="47"/>
-      <c r="F220" s="48"/>
+      <c r="B220" s="42"/>
+      <c r="C220" s="42"/>
+      <c r="D220" s="42"/>
+      <c r="E220" s="42"/>
+      <c r="F220" s="42"/>
     </row>
     <row r="221" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="16"/>
-      <c r="B221" s="18">
+      <c r="A221" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B221" s="25">
         <v>1</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D221" s="19" t="s">
+      <c r="D221" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E221" s="17"/>
-      <c r="F221" s="17"/>
+      <c r="E221" s="24"/>
+      <c r="F221" s="24"/>
     </row>
     <row r="222" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="16"/>
-      <c r="B222" s="18">
+      <c r="A222" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B222" s="25">
         <v>2</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D222" s="19" t="s">
+      <c r="D222" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E222" s="17"/>
-      <c r="F222" s="17"/>
+      <c r="E222" s="24"/>
+      <c r="F222" s="24"/>
     </row>
     <row r="223" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="16"/>
-      <c r="B223" s="18">
+      <c r="A223" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B223" s="25">
         <v>3</v>
       </c>
-      <c r="C223" s="17" t="s">
+      <c r="C223" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D223" s="19" t="s">
+      <c r="D223" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="E223" s="17"/>
-      <c r="F223" s="17"/>
+      <c r="E223" s="24"/>
+      <c r="F223" s="24"/>
     </row>
     <row r="224" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="16"/>
-      <c r="B224" s="18">
+      <c r="A224" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B224" s="25">
         <v>4</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D224" s="19" t="s">
+      <c r="D224" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E224" s="17"/>
-      <c r="F224" s="17"/>
+      <c r="E224" s="24"/>
+      <c r="F224" s="24"/>
     </row>
     <row r="225" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="16"/>
-      <c r="B225" s="18">
+      <c r="A225" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B225" s="25">
         <v>5</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D225" s="19" t="s">
+      <c r="D225" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E225" s="17"/>
-      <c r="F225" s="17"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="24"/>
     </row>
     <row r="226" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="16"/>
-      <c r="B226" s="18">
+      <c r="A226" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B226" s="25">
         <v>6</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D226" s="19" t="s">
+      <c r="D226" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E226" s="17"/>
-      <c r="F226" s="17"/>
+      <c r="E226" s="24"/>
+      <c r="F226" s="24"/>
     </row>
     <row r="227" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="16"/>
-      <c r="B227" s="18">
+      <c r="A227" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B227" s="25">
         <v>7</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D227" s="19" t="s">
+      <c r="D227" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="E227" s="17"/>
-      <c r="F227" s="17"/>
+      <c r="E227" s="24"/>
+      <c r="F227" s="24"/>
     </row>
     <row r="228" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="16"/>
-      <c r="B228" s="18">
+      <c r="A228" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B228" s="25">
         <v>8</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D228" s="19" t="s">
+      <c r="D228" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="E228" s="17"/>
-      <c r="F228" s="17"/>
-    </row>
-    <row r="229" spans="1:6" s="27" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="46" t="s">
+      <c r="E228" s="24"/>
+      <c r="F228" s="24"/>
+    </row>
+    <row r="229" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="B229" s="47"/>
-      <c r="C229" s="47"/>
-      <c r="D229" s="47"/>
-      <c r="E229" s="47"/>
-      <c r="F229" s="48"/>
+      <c r="B229" s="42"/>
+      <c r="C229" s="42"/>
+      <c r="D229" s="42"/>
+      <c r="E229" s="42"/>
+      <c r="F229" s="42"/>
     </row>
     <row r="230" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="16"/>
-      <c r="B230" s="18">
+      <c r="A230" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B230" s="25">
         <v>1</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="C230" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D230" s="19" t="s">
+      <c r="D230" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E230" s="17"/>
-      <c r="F230" s="17"/>
+      <c r="E230" s="24"/>
+      <c r="F230" s="24"/>
     </row>
     <row r="231" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="16"/>
-      <c r="B231" s="18">
+      <c r="A231" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B231" s="25">
         <v>2</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="C231" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D231" s="19" t="s">
+      <c r="D231" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E231" s="17"/>
-      <c r="F231" s="17"/>
+      <c r="E231" s="24"/>
+      <c r="F231" s="24"/>
     </row>
     <row r="232" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="16"/>
-      <c r="B232" s="18">
+      <c r="A232" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B232" s="25">
         <v>3</v>
       </c>
-      <c r="C232" s="17" t="s">
+      <c r="C232" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D232" s="19" t="s">
+      <c r="D232" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="E232" s="17"/>
-      <c r="F232" s="17"/>
+      <c r="E232" s="24"/>
+      <c r="F232" s="24"/>
     </row>
     <row r="233" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="16"/>
-      <c r="B233" s="18">
+      <c r="A233" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B233" s="25">
         <v>4</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C233" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D233" s="19" t="s">
+      <c r="D233" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E233" s="17"/>
-      <c r="F233" s="17"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="24"/>
     </row>
     <row r="234" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="16"/>
-      <c r="B234" s="18">
+      <c r="A234" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B234" s="25">
         <v>8</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C234" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D234" s="19" t="s">
+      <c r="D234" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E234" s="17"/>
-      <c r="F234" s="17"/>
-    </row>
-    <row r="235" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="50" t="s">
+      <c r="E234" s="24"/>
+      <c r="F234" s="24"/>
+    </row>
+    <row r="235" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="B235" s="50"/>
-      <c r="C235" s="50"/>
-      <c r="D235" s="50"/>
-      <c r="E235" s="50"/>
-      <c r="F235" s="50"/>
-    </row>
-    <row r="236" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="40"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="40"/>
+      <c r="F235" s="40"/>
+    </row>
+    <row r="236" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>343</v>
       </c>
@@ -6015,8 +6102,10 @@
       <c r="D236" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" s="10" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+    </row>
+    <row r="237" spans="1:6" s="46" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="15" t="s">
         <v>330</v>
@@ -6027,8 +6116,10 @@
       <c r="D237" s="5" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" s="10" customFormat="1" ht="240" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+    </row>
+    <row r="238" spans="1:6" s="46" customFormat="1" ht="240" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>343</v>
       </c>
@@ -6041,18 +6132,20 @@
       <c r="D238" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="50" t="s">
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+    </row>
+    <row r="239" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="B239" s="50"/>
-      <c r="C239" s="50"/>
-      <c r="D239" s="50"/>
-      <c r="E239" s="50"/>
-      <c r="F239" s="50"/>
-    </row>
-    <row r="240" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="40"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="40"/>
+      <c r="F239" s="40"/>
+    </row>
+    <row r="240" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>328</v>
       </c>
@@ -6065,8 +6158,10 @@
       <c r="D240" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+    </row>
+    <row r="241" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>328</v>
       </c>
@@ -6079,8 +6174,10 @@
       <c r="D241" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+    </row>
+    <row r="242" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>328</v>
       </c>
@@ -6093,8 +6190,10 @@
       <c r="D242" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+    </row>
+    <row r="243" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>328</v>
       </c>
@@ -6107,8 +6206,10 @@
       <c r="D243" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+    </row>
+    <row r="244" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>328</v>
       </c>
@@ -6121,8 +6222,10 @@
       <c r="D244" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
+    </row>
+    <row r="245" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>328</v>
       </c>
@@ -6135,8 +6238,10 @@
       <c r="D245" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
+    </row>
+    <row r="246" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>328</v>
       </c>
@@ -6149,8 +6254,10 @@
       <c r="D246" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E246" s="10"/>
+      <c r="F246" s="10"/>
+    </row>
+    <row r="247" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>328</v>
       </c>
@@ -6163,18 +6270,20 @@
       <c r="D247" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="50" t="s">
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
+    </row>
+    <row r="248" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="B248" s="50"/>
-      <c r="C248" s="50"/>
-      <c r="D248" s="50"/>
-      <c r="E248" s="50"/>
-      <c r="F248" s="50"/>
-    </row>
-    <row r="249" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="40"/>
+      <c r="C248" s="40"/>
+      <c r="D248" s="40"/>
+      <c r="E248" s="40"/>
+      <c r="F248" s="40"/>
+    </row>
+    <row r="249" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>329</v>
       </c>
@@ -6187,8 +6296,10 @@
       <c r="D249" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+    </row>
+    <row r="250" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>329</v>
       </c>
@@ -6201,8 +6312,10 @@
       <c r="D250" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
+    </row>
+    <row r="251" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>329</v>
       </c>
@@ -6215,8 +6328,10 @@
       <c r="D251" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
+    </row>
+    <row r="252" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>329</v>
       </c>
@@ -6229,8 +6344,10 @@
       <c r="D252" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
+    </row>
+    <row r="253" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>329</v>
       </c>
@@ -6243,8 +6360,10 @@
       <c r="D253" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E253" s="10"/>
+      <c r="F253" s="10"/>
+    </row>
+    <row r="254" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>329</v>
       </c>
@@ -6257,8 +6376,10 @@
       <c r="D254" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
+    </row>
+    <row r="255" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>329</v>
       </c>
@@ -6271,8 +6392,10 @@
       <c r="D255" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
+    </row>
+    <row r="256" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>329</v>
       </c>
@@ -6285,8 +6408,10 @@
       <c r="D256" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
+    </row>
+    <row r="257" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>329</v>
       </c>
@@ -6299,18 +6424,20 @@
       <c r="D257" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="50" t="s">
+      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
+    </row>
+    <row r="258" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="B258" s="50"/>
-      <c r="C258" s="50"/>
-      <c r="D258" s="50"/>
-      <c r="E258" s="50"/>
-      <c r="F258" s="50"/>
-    </row>
-    <row r="259" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="40"/>
+      <c r="C258" s="40"/>
+      <c r="D258" s="40"/>
+      <c r="E258" s="40"/>
+      <c r="F258" s="40"/>
+    </row>
+    <row r="259" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>319</v>
       </c>
@@ -6323,18 +6450,20 @@
       <c r="D259" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="50" t="s">
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
+    </row>
+    <row r="260" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B260" s="50"/>
-      <c r="C260" s="50"/>
-      <c r="D260" s="50"/>
-      <c r="E260" s="50"/>
-      <c r="F260" s="50"/>
-    </row>
-    <row r="261" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="40"/>
+      <c r="C260" s="40"/>
+      <c r="D260" s="40"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="40"/>
+    </row>
+    <row r="261" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>342</v>
       </c>
@@ -6347,6 +6476,8 @@
       <c r="D261" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
     </row>
     <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
@@ -6361,6 +6492,8 @@
       <c r="D262" s="5" t="s">
         <v>160</v>
       </c>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
     </row>
     <row r="263" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
@@ -6375,18 +6508,20 @@
       <c r="D263" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="51" t="s">
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+    </row>
+    <row r="264" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="B264" s="51"/>
-      <c r="C264" s="51"/>
-      <c r="D264" s="51"/>
-      <c r="E264" s="51"/>
-      <c r="F264" s="51"/>
-    </row>
-    <row r="265" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B264" s="41"/>
+      <c r="C264" s="41"/>
+      <c r="D264" s="41"/>
+      <c r="E264" s="41"/>
+      <c r="F264" s="41"/>
+    </row>
+    <row r="265" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>341</v>
       </c>
@@ -6397,8 +6532,10 @@
         <v>163</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>354</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
@@ -6413,21 +6550,22 @@
       <c r="D266" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="E266" s="5"/>
       <c r="F266" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="50" t="s">
+    <row r="267" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="B267" s="50"/>
-      <c r="C267" s="50"/>
-      <c r="D267" s="50"/>
-      <c r="E267" s="50"/>
-      <c r="F267" s="50"/>
-    </row>
-    <row r="268" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="40"/>
+      <c r="C267" s="40"/>
+      <c r="D267" s="40"/>
+      <c r="E267" s="40"/>
+      <c r="F267" s="40"/>
+    </row>
+    <row r="268" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>340</v>
       </c>
@@ -6440,6 +6578,8 @@
       <c r="D268" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
     </row>
     <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
@@ -6454,21 +6594,22 @@
       <c r="D269" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="E269" s="5"/>
       <c r="F269" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="50" t="s">
+    <row r="270" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="B270" s="50"/>
-      <c r="C270" s="50"/>
-      <c r="D270" s="50"/>
-      <c r="E270" s="50"/>
-      <c r="F270" s="50"/>
-    </row>
-    <row r="271" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B270" s="40"/>
+      <c r="C270" s="40"/>
+      <c r="D270" s="40"/>
+      <c r="E270" s="40"/>
+      <c r="F270" s="40"/>
+    </row>
+    <row r="271" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>338</v>
       </c>
@@ -6481,6 +6622,8 @@
       <c r="D271" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
     </row>
     <row r="272" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
@@ -6495,21 +6638,22 @@
       <c r="D272" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="E272" s="5"/>
       <c r="F272" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="50" t="s">
+    <row r="273" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="B273" s="50"/>
-      <c r="C273" s="50"/>
-      <c r="D273" s="50"/>
-      <c r="E273" s="50"/>
-      <c r="F273" s="50"/>
-    </row>
-    <row r="274" spans="1:6" s="10" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="40"/>
+      <c r="C273" s="40"/>
+      <c r="D273" s="40"/>
+      <c r="E273" s="40"/>
+      <c r="F273" s="40"/>
+    </row>
+    <row r="274" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>339</v>
       </c>
@@ -6522,6 +6666,8 @@
       <c r="D274" s="5" t="s">
         <v>175</v>
       </c>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
     </row>
     <row r="275" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
@@ -6536,6 +6682,7 @@
       <c r="D275" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="E275" s="5"/>
       <c r="F275" s="4" t="s">
         <v>74</v>
       </c>

--- a/Config/RFC.xlsx
+++ b/Config/RFC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E87A8EC-F976-0C44-A26D-5AEEBE58613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C8FC9-C190-BC48-A175-7388914005B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="500" windowWidth="16200" windowHeight="16280" tabRatio="673" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="500" windowWidth="16200" windowHeight="16180" tabRatio="673" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AT - Test Suite" sheetId="2" r:id="rId1"/>
@@ -45,14 +45,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
     <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="372">
   <si>
     <t>Description</t>
   </si>
@@ -584,9 +584,6 @@
     <t>Click Download icon</t>
   </si>
   <si>
-    <t xml:space="preserve">PDF file should be downloaded. </t>
-  </si>
-  <si>
     <t>Click burger menu then click 'Bills &amp; Payments' then click 'Pay Bills'</t>
   </si>
   <si>
@@ -1129,9 +1126,6 @@
     <t>Step 8</t>
   </si>
   <si>
-    <t>Step 9</t>
-  </si>
-  <si>
     <t>TC055</t>
   </si>
   <si>
@@ -1190,6 +1184,54 @@
   </si>
   <si>
     <t>TC036</t>
+  </si>
+  <si>
+    <t>TC057 Verify Viewing of Payment Confirmation</t>
+  </si>
+  <si>
+    <t>TC058 Verify Download of Payment Confirmation</t>
+  </si>
+  <si>
+    <t>TC057</t>
+  </si>
+  <si>
+    <t>Click burger menu</t>
+  </si>
+  <si>
+    <t>Lists of menu should be displayed</t>
+  </si>
+  <si>
+    <t>Click 'Bills &amp; Payments'</t>
+  </si>
+  <si>
+    <t>Verify Payment Confirmation</t>
+  </si>
+  <si>
+    <t>TC058</t>
+  </si>
+  <si>
+    <t>PDF file should be downloaded</t>
+  </si>
+  <si>
+    <t>Click ok</t>
+  </si>
+  <si>
+    <t>Modal should be removed</t>
+  </si>
+  <si>
+    <t>User should be able to download the payment confirmation.</t>
+  </si>
+  <si>
+    <t>User should be able to subscribe in paperless billing</t>
+  </si>
+  <si>
+    <t>Click Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click 'Pay Now' button </t>
+  </si>
+  <si>
+    <t>User should be directed to Pay Bills page and can enter amount to pay.</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1390,12 +1432,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1492,44 +1571,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1817,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A75" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1832,20 +1929,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1943,27 +2040,27 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>19</v>
@@ -1973,64 +2070,64 @@
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>20</v>
@@ -2038,23 +2135,23 @@
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="60" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>20</v>
@@ -2062,15 +2159,15 @@
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>26</v>
@@ -2078,7 +2175,7 @@
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="76" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>21</v>
@@ -2086,23 +2183,23 @@
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" ht="39" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1" ht="66" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>22</v>
@@ -2110,23 +2207,23 @@
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:3" s="3" customFormat="1" ht="77" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>23</v>
@@ -2134,23 +2231,23 @@
     </row>
     <row r="34" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="2:3" s="3" customFormat="1" ht="77" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>24</v>
@@ -2158,23 +2255,23 @@
     </row>
     <row r="37" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="2:3" s="3" customFormat="1" ht="38" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>115</v>
@@ -2182,23 +2279,23 @@
     </row>
     <row r="40" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="3" customFormat="1" ht="44" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>115</v>
@@ -2206,23 +2303,23 @@
     </row>
     <row r="43" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="2:3" s="3" customFormat="1" ht="74" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>25</v>
@@ -2230,47 +2327,47 @@
     </row>
     <row r="46" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="3" customFormat="1" ht="71" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" ht="49" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>27</v>
@@ -2278,15 +2375,15 @@
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="79" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>28</v>
@@ -2294,18 +2391,18 @@
     </row>
     <row r="54" spans="1:4" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2341,7 +2438,7 @@
         <v>32</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>34</v>
@@ -2383,7 +2480,7 @@
     </row>
     <row r="63" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>39</v>
@@ -2391,7 +2488,7 @@
     </row>
     <row r="64" spans="1:4" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>40</v>
@@ -2430,7 +2527,7 @@
         <v>41</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>43</v>
@@ -2440,11 +2537,11 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
     </row>
     <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
@@ -2525,28 +2622,28 @@
     </row>
     <row r="77" spans="1:4" s="3" customFormat="1" ht="14" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C77" s="29"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B78" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2582,7 +2679,7 @@
         <v>32</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C84" s="34" t="s">
         <v>34</v>
@@ -2624,7 +2721,7 @@
         <v>32</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="C87" s="34"/>
       <c r="D87" s="21" t="s">
@@ -2634,7 +2731,7 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
       <c r="B88" s="3" t="s">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="C88" s="34"/>
       <c r="D88" s="21"/>
@@ -2672,7 +2769,7 @@
         <v>32</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>43</v>
@@ -2684,43 +2781,43 @@
   </sheetData>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
+      <selection activeCell="B8" sqref="B8"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
       <selection activeCell="B40" sqref="B40"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
-      <selection activeCell="B8" sqref="B8"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
@@ -2749,11 +2846,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -2770,21 +2867,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="65.33203125" style="45"/>
+    <col min="1" max="1" width="37" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="65.33203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2807,22 +2904,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>64</v>
@@ -2833,22 +2930,22 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>66</v>
@@ -2859,12 +2956,12 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>68</v>
@@ -2875,19 +2972,19 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B8" s="15">
         <v>1</v>
@@ -2901,9 +2998,9 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" s="46" customFormat="1" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="39" customFormat="1" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="15">
         <v>2</v>
@@ -2919,49 +3016,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" s="15">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" s="15">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" s="49" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-    </row>
-    <row r="13" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="39" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
@@ -2975,53 +3072,53 @@
       <c r="E13" s="4"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="15">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" s="15">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" s="49" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="39" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
@@ -3035,69 +3132,69 @@
       <c r="E17" s="4"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" s="15">
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" s="15">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="15">
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+    <row r="21" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
@@ -3113,7 +3210,7 @@
     </row>
     <row r="23" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -3129,196 +3226,196 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="25">
         <v>1</v>
       </c>
       <c r="C25" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26" s="25">
         <v>2</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B28" s="25">
         <v>1</v>
       </c>
       <c r="C28" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="25">
         <v>2</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>239</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+    <row r="30" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B31" s="25">
         <v>1</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B32" s="25">
         <v>2</v>
       </c>
       <c r="C32" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>240</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>241</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+    <row r="33" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B34" s="25">
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" s="25">
         <v>2</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+    <row r="36" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B37" s="25">
         <v>1</v>
       </c>
       <c r="C37" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -3329,23 +3426,23 @@
         <v>2</v>
       </c>
       <c r="C38" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>244</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" spans="1:6" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
+    <row r="39" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
@@ -3353,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -3367,23 +3464,23 @@
         <v>2</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+    <row r="42" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -3429,15 +3526,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+    <row r="46" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
     </row>
     <row r="47" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -3473,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -3487,23 +3584,23 @@
         <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
+    <row r="51" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
@@ -3539,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -3553,10 +3650,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -3567,23 +3664,23 @@
         <v>5</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
+    <row r="57" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
     </row>
     <row r="58" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
@@ -3629,15 +3726,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
+    <row r="61" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
     </row>
     <row r="62" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="24"/>
@@ -3659,10 +3756,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -3673,10 +3770,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -3687,23 +3784,23 @@
         <v>4</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
     </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
+    <row r="66" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
     </row>
     <row r="67" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
@@ -3725,10 +3822,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -3739,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
@@ -3753,10 +3850,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
@@ -3767,23 +3864,23 @@
         <v>5</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
     </row>
-    <row r="72" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
+    <row r="72" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
     </row>
     <row r="73" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
@@ -3815,15 +3912,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
+    <row r="75" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
     </row>
     <row r="76" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
@@ -3831,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>81</v>
@@ -3845,10 +3942,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -3862,20 +3959,20 @@
         <v>92</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
+    <row r="79" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
     </row>
     <row r="80" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
@@ -3883,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>81</v>
@@ -3897,10 +3994,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -3911,23 +4008,23 @@
         <v>3</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
+    <row r="83" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
     </row>
     <row r="84" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -3973,15 +4070,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
+    <row r="87" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
     </row>
     <row r="88" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="24"/>
@@ -3989,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D88" s="26" t="s">
         <v>81</v>
@@ -4003,10 +4100,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
@@ -4020,7 +4117,7 @@
         <v>92</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
@@ -4034,20 +4131,20 @@
         <v>100</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
     </row>
-    <row r="92" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
+    <row r="92" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
     </row>
     <row r="93" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24"/>
@@ -4055,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D93" s="26" t="s">
         <v>81</v>
@@ -4069,10 +4166,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
@@ -4086,7 +4183,7 @@
         <v>92</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
@@ -4097,23 +4194,23 @@
         <v>4</v>
       </c>
       <c r="C96" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
     </row>
-    <row r="97" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
+    <row r="97" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
     </row>
     <row r="98" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
@@ -4227,15 +4324,15 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
+    <row r="106" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23"/>
@@ -4355,23 +4452,23 @@
         <v>9</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
     </row>
-    <row r="116" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
+    <row r="116" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
     </row>
     <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
@@ -4491,23 +4588,23 @@
         <v>9</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
+    <row r="126" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="52"/>
     </row>
     <row r="127" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
@@ -4553,15 +4650,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
+    <row r="130" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B130" s="54"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="54"/>
     </row>
     <row r="131" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
@@ -4569,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -4586,7 +4683,7 @@
         <v>112</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -4597,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -4611,23 +4708,23 @@
         <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
+    <row r="135" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B135" s="54"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
+      <c r="F135" s="54"/>
     </row>
     <row r="136" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
@@ -4635,10 +4732,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -4652,7 +4749,7 @@
         <v>112</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -4663,10 +4760,10 @@
         <v>3</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -4677,23 +4774,23 @@
         <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="B140" s="40"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="40"/>
-      <c r="F140" s="40"/>
+    <row r="140" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="52"/>
     </row>
     <row r="141" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
@@ -4739,15 +4836,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="B144" s="43"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="43"/>
-      <c r="E144" s="43"/>
-      <c r="F144" s="43"/>
+    <row r="144" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B144" s="54"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="54"/>
+      <c r="F144" s="54"/>
     </row>
     <row r="145" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
@@ -4755,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -4772,7 +4869,7 @@
         <v>117</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -4783,10 +4880,10 @@
         <v>3</v>
       </c>
       <c r="C147" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -4797,23 +4894,23 @@
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="42"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="42"/>
+    <row r="149" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B149" s="55"/>
+      <c r="C149" s="55"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55"/>
     </row>
     <row r="150" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A150" s="24"/>
@@ -4821,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D150" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="D150" s="26" t="s">
-        <v>207</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="24"/>
@@ -4838,7 +4935,7 @@
         <v>117</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="24"/>
@@ -4849,10 +4946,10 @@
         <v>3</v>
       </c>
       <c r="C152" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D152" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="24"/>
@@ -4863,23 +4960,23 @@
         <v>4</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="24"/>
     </row>
-    <row r="154" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="B154" s="40"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="40"/>
-      <c r="E154" s="40"/>
-      <c r="F154" s="40"/>
+    <row r="154" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" s="52"/>
+      <c r="C154" s="52"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
     </row>
     <row r="155" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
@@ -4925,15 +5022,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="B158" s="42"/>
-      <c r="C158" s="42"/>
-      <c r="D158" s="42"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="42"/>
+    <row r="158" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B158" s="55"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="55"/>
     </row>
     <row r="159" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
@@ -4941,10 +5038,10 @@
         <v>1</v>
       </c>
       <c r="C159" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D159" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>207</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="24"/>
@@ -4958,7 +5055,7 @@
         <v>119</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="24"/>
@@ -4969,10 +5066,10 @@
         <v>3</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="24"/>
@@ -4983,43 +5080,43 @@
         <v>4</v>
       </c>
       <c r="C162" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D162" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="24"/>
     </row>
-    <row r="163" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="B163" s="42"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="42"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="42"/>
+    <row r="163" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B163" s="55"/>
+      <c r="C163" s="55"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="55"/>
     </row>
     <row r="164" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A164" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B164" s="25">
         <v>1</v>
       </c>
       <c r="C164" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D164" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="D164" s="26" t="s">
-        <v>207</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="24"/>
     </row>
     <row r="165" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A165" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B165" s="25">
         <v>2</v>
@@ -5028,56 +5125,56 @@
         <v>119</v>
       </c>
       <c r="D165" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="24"/>
     </row>
     <row r="166" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A166" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B166" s="25">
         <v>3</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="24"/>
     </row>
     <row r="167" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A167" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B167" s="25">
         <v>4</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D167" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="24"/>
     </row>
-    <row r="168" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="B168" s="40"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="40"/>
-      <c r="F168" s="40"/>
+    <row r="168" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B168" s="52"/>
+      <c r="C168" s="52"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="52"/>
+      <c r="F168" s="52"/>
     </row>
     <row r="169" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B169" s="15">
         <v>1</v>
@@ -5093,7 +5190,7 @@
     </row>
     <row r="170" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B170" s="15">
         <v>2</v>
@@ -5109,7 +5206,7 @@
     </row>
     <row r="171" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B171" s="15">
         <v>3</v>
@@ -5125,7 +5222,7 @@
     </row>
     <row r="172" spans="1:6" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B172" s="15">
         <v>4</v>
@@ -5141,35 +5238,35 @@
         <v>74</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="B173" s="42"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="42"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="42"/>
+    <row r="173" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B173" s="55"/>
+      <c r="C173" s="55"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="55"/>
+      <c r="F173" s="55"/>
     </row>
     <row r="174" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A174" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B174" s="25">
         <v>1</v>
       </c>
       <c r="C174" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D174" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D174" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E174" s="24"/>
       <c r="F174" s="24"/>
     </row>
     <row r="175" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A175" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B175" s="25">
         <v>2</v>
@@ -5178,72 +5275,72 @@
         <v>123</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="24"/>
     </row>
     <row r="176" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A176" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B176" s="25">
         <v>3</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D176" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="D176" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="E176" s="24"/>
       <c r="F176" s="24"/>
     </row>
     <row r="177" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A177" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B177" s="25">
         <v>4</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
     </row>
-    <row r="178" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="B178" s="42"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="42"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
+    <row r="178" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="B178" s="55"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="55"/>
     </row>
     <row r="179" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A179" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B179" s="25">
         <v>1</v>
       </c>
       <c r="C179" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D179" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D179" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E179" s="24"/>
       <c r="F179" s="24"/>
     </row>
     <row r="180" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A180" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B180" s="25">
         <v>2</v>
@@ -5252,72 +5349,72 @@
         <v>123</v>
       </c>
       <c r="D180" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E180" s="24"/>
       <c r="F180" s="24"/>
     </row>
     <row r="181" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A181" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B181" s="25">
         <v>3</v>
       </c>
       <c r="C181" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D181" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="E181" s="24"/>
       <c r="F181" s="24"/>
     </row>
     <row r="182" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A182" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B182" s="25">
         <v>4</v>
       </c>
       <c r="C182" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D182" s="26" t="s">
         <v>225</v>
-      </c>
-      <c r="D182" s="26" t="s">
-        <v>226</v>
       </c>
       <c r="E182" s="24"/>
       <c r="F182" s="24"/>
     </row>
-    <row r="183" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="B183" s="42"/>
-      <c r="C183" s="42"/>
-      <c r="D183" s="42"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42"/>
+    <row r="183" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B183" s="55"/>
+      <c r="C183" s="55"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
     </row>
     <row r="184" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A184" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B184" s="25">
         <v>1</v>
       </c>
       <c r="C184" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D184" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E184" s="24"/>
       <c r="F184" s="24"/>
     </row>
     <row r="185" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A185" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B185" s="25">
         <v>2</v>
@@ -5326,56 +5423,56 @@
         <v>123</v>
       </c>
       <c r="D185" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E185" s="24"/>
       <c r="F185" s="24"/>
     </row>
     <row r="186" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A186" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B186" s="25">
         <v>3</v>
       </c>
       <c r="C186" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D186" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="E186" s="24"/>
       <c r="F186" s="24"/>
     </row>
     <row r="187" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A187" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B187" s="25">
         <v>4</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E187" s="24"/>
       <c r="F187" s="24"/>
     </row>
-    <row r="188" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="B188" s="40"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="40"/>
-      <c r="E188" s="40"/>
-      <c r="F188" s="40"/>
+    <row r="188" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B188" s="52"/>
+      <c r="C188" s="52"/>
+      <c r="D188" s="52"/>
+      <c r="E188" s="52"/>
+      <c r="F188" s="52"/>
     </row>
     <row r="189" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B189" s="15">
         <v>1</v>
@@ -5391,7 +5488,7 @@
     </row>
     <row r="190" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B190" s="15">
         <v>2</v>
@@ -5407,7 +5504,7 @@
     </row>
     <row r="191" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B191" s="15">
         <v>3</v>
@@ -5423,7 +5520,7 @@
     </row>
     <row r="192" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B192" s="15">
         <v>4</v>
@@ -5439,7 +5536,7 @@
     </row>
     <row r="193" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B193" s="15">
         <v>5</v>
@@ -5455,7 +5552,7 @@
     </row>
     <row r="194" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B194" s="15">
         <v>6</v>
@@ -5471,35 +5568,35 @@
         <v>135</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="B195" s="42"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="42"/>
-      <c r="E195" s="42"/>
-      <c r="F195" s="42"/>
+    <row r="195" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="B195" s="55"/>
+      <c r="C195" s="55"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
     </row>
     <row r="196" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A196" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B196" s="25">
         <v>1</v>
       </c>
       <c r="C196" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D196" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D196" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E196" s="24"/>
       <c r="F196" s="24"/>
     </row>
     <row r="197" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A197" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B197" s="25">
         <v>2</v>
@@ -5508,78 +5605,78 @@
         <v>123</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E197" s="24"/>
       <c r="F197" s="24"/>
     </row>
     <row r="198" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A198" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B198" s="25">
         <v>3</v>
       </c>
       <c r="C198" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D198" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="D198" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="E198" s="24"/>
       <c r="F198" s="24"/>
     </row>
     <row r="199" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A199" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B199" s="25">
         <v>4</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E199" s="24"/>
       <c r="F199" s="24"/>
     </row>
     <row r="200" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A200" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B200" s="25">
         <v>5</v>
       </c>
       <c r="C200" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D200" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="D200" s="26" t="s">
-        <v>228</v>
       </c>
       <c r="E200" s="24"/>
       <c r="F200" s="24"/>
     </row>
     <row r="201" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A201" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B201" s="25">
         <v>6</v>
       </c>
       <c r="C201" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D201" s="26" t="s">
         <v>229</v>
-      </c>
-      <c r="D201" s="26" t="s">
-        <v>230</v>
       </c>
       <c r="E201" s="24"/>
       <c r="F201" s="24"/>
     </row>
     <row r="202" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A202" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B202" s="25">
         <v>7</v>
@@ -5588,24 +5685,24 @@
         <v>142</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E202" s="24"/>
       <c r="F202" s="24"/>
     </row>
-    <row r="203" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B203" s="40"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="40"/>
-      <c r="E203" s="40"/>
-      <c r="F203" s="40"/>
+    <row r="203" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B203" s="52"/>
+      <c r="C203" s="52"/>
+      <c r="D203" s="52"/>
+      <c r="E203" s="52"/>
+      <c r="F203" s="52"/>
     </row>
     <row r="204" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B204" s="15">
         <v>1</v>
@@ -5621,7 +5718,7 @@
     </row>
     <row r="205" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B205" s="15">
         <v>2</v>
@@ -5637,7 +5734,7 @@
     </row>
     <row r="206" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B206" s="15">
         <v>3</v>
@@ -5653,35 +5750,35 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="B207" s="42"/>
-      <c r="C207" s="42"/>
-      <c r="D207" s="42"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
+    <row r="207" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="B207" s="55"/>
+      <c r="C207" s="55"/>
+      <c r="D207" s="55"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="55"/>
     </row>
     <row r="208" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A208" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B208" s="25">
         <v>1</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E208" s="24"/>
       <c r="F208" s="24"/>
     </row>
     <row r="209" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A209" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B209" s="25">
         <v>2</v>
@@ -5690,56 +5787,56 @@
         <v>138</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E209" s="24"/>
       <c r="F209" s="24"/>
     </row>
     <row r="210" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A210" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B210" s="25">
         <v>3</v>
       </c>
       <c r="C210" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D210" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="D210" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="E210" s="24"/>
       <c r="F210" s="24"/>
     </row>
     <row r="211" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A211" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B211" s="25">
         <v>4</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E211" s="24"/>
       <c r="F211" s="24"/>
     </row>
-    <row r="212" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="B212" s="40"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40"/>
-      <c r="E212" s="40"/>
-      <c r="F212" s="40"/>
+    <row r="212" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
+      <c r="D212" s="52"/>
+      <c r="E212" s="52"/>
+      <c r="F212" s="52"/>
     </row>
     <row r="213" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B213" s="15">
         <v>1</v>
@@ -5755,7 +5852,7 @@
     </row>
     <row r="214" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B214" s="15">
         <v>2</v>
@@ -5771,7 +5868,7 @@
     </row>
     <row r="215" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B215" s="15">
         <v>3</v>
@@ -5787,7 +5884,7 @@
     </row>
     <row r="216" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B216" s="15">
         <v>4</v>
@@ -5803,7 +5900,7 @@
     </row>
     <row r="217" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B217" s="15">
         <v>5</v>
@@ -5819,7 +5916,7 @@
     </row>
     <row r="218" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B218" s="15">
         <v>6</v>
@@ -5835,7 +5932,7 @@
     </row>
     <row r="219" spans="1:6" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B219" s="15">
         <v>7</v>
@@ -5851,35 +5948,35 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="B220" s="42"/>
-      <c r="C220" s="42"/>
-      <c r="D220" s="42"/>
-      <c r="E220" s="42"/>
-      <c r="F220" s="42"/>
+    <row r="220" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B220" s="55"/>
+      <c r="C220" s="55"/>
+      <c r="D220" s="55"/>
+      <c r="E220" s="55"/>
+      <c r="F220" s="55"/>
     </row>
     <row r="221" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A221" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B221" s="25">
         <v>1</v>
       </c>
       <c r="C221" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D221" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D221" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E221" s="24"/>
       <c r="F221" s="24"/>
     </row>
     <row r="222" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A222" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B222" s="25">
         <v>2</v>
@@ -5888,78 +5985,78 @@
         <v>123</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E222" s="24"/>
       <c r="F222" s="24"/>
     </row>
     <row r="223" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A223" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B223" s="25">
         <v>3</v>
       </c>
       <c r="C223" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D223" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="D223" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="E223" s="24"/>
       <c r="F223" s="24"/>
     </row>
     <row r="224" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A224" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B224" s="25">
         <v>4</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E224" s="24"/>
       <c r="F224" s="24"/>
     </row>
     <row r="225" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B225" s="25">
         <v>5</v>
       </c>
       <c r="C225" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D225" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="D225" s="26" t="s">
-        <v>228</v>
       </c>
       <c r="E225" s="24"/>
       <c r="F225" s="24"/>
     </row>
     <row r="226" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A226" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B226" s="25">
         <v>6</v>
       </c>
       <c r="C226" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D226" s="26" t="s">
         <v>229</v>
-      </c>
-      <c r="D226" s="26" t="s">
-        <v>230</v>
       </c>
       <c r="E226" s="24"/>
       <c r="F226" s="24"/>
     </row>
     <row r="227" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A227" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B227" s="25">
         <v>7</v>
@@ -5968,56 +6065,56 @@
         <v>142</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E227" s="24"/>
       <c r="F227" s="24"/>
     </row>
     <row r="228" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A228" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B228" s="25">
         <v>8</v>
       </c>
       <c r="C228" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E228" s="24"/>
       <c r="F228" s="24"/>
     </row>
-    <row r="229" spans="1:6" s="50" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="B229" s="42"/>
-      <c r="C229" s="42"/>
-      <c r="D229" s="42"/>
-      <c r="E229" s="42"/>
-      <c r="F229" s="42"/>
+    <row r="229" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B229" s="55"/>
+      <c r="C229" s="55"/>
+      <c r="D229" s="55"/>
+      <c r="E229" s="55"/>
+      <c r="F229" s="55"/>
     </row>
     <row r="230" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A230" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B230" s="25">
         <v>1</v>
       </c>
       <c r="C230" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D230" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="D230" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="E230" s="24"/>
       <c r="F230" s="24"/>
     </row>
     <row r="231" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A231" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B231" s="25">
         <v>2</v>
@@ -6026,75 +6123,75 @@
         <v>123</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E231" s="24"/>
       <c r="F231" s="24"/>
     </row>
     <row r="232" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A232" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B232" s="25">
         <v>3</v>
       </c>
       <c r="C232" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D232" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="D232" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="E232" s="24"/>
       <c r="F232" s="24"/>
     </row>
     <row r="233" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A233" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B233" s="25">
         <v>4</v>
       </c>
       <c r="C233" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E233" s="24"/>
       <c r="F233" s="24"/>
     </row>
     <row r="234" spans="1:6" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A234" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B234" s="25">
         <v>8</v>
       </c>
       <c r="C234" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E234" s="24"/>
       <c r="F234" s="24"/>
     </row>
-    <row r="235" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B235" s="40"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
-      <c r="E235" s="40"/>
-      <c r="F235" s="40"/>
-    </row>
-    <row r="236" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="B235" s="52"/>
+      <c r="C235" s="52"/>
+      <c r="D235" s="52"/>
+      <c r="E235" s="52"/>
+      <c r="F235" s="52"/>
+    </row>
+    <row r="236" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>146</v>
@@ -6105,26 +6202,26 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" spans="1:6" s="46" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" s="39" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="1:6" s="46" customFormat="1" ht="240" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" s="39" customFormat="1" ht="240" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>148</v>
@@ -6135,22 +6232,22 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B239" s="40"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="40"/>
-      <c r="F239" s="40"/>
-    </row>
-    <row r="240" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B239" s="52"/>
+      <c r="C239" s="52"/>
+      <c r="D239" s="52"/>
+      <c r="E239" s="52"/>
+      <c r="F239" s="52"/>
+    </row>
+    <row r="240" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>88</v>
@@ -6161,12 +6258,12 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
     </row>
-    <row r="241" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>96</v>
@@ -6177,12 +6274,12 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
     </row>
-    <row r="242" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>98</v>
@@ -6193,12 +6290,12 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>100</v>
@@ -6209,12 +6306,12 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>102</v>
@@ -6225,12 +6322,12 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
     </row>
-    <row r="245" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>104</v>
@@ -6241,12 +6338,12 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>106</v>
@@ -6257,12 +6354,12 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
     </row>
-    <row r="247" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>150</v>
@@ -6273,458 +6370,928 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B248" s="40"/>
-      <c r="C248" s="40"/>
-      <c r="D248" s="40"/>
-      <c r="E248" s="40"/>
-      <c r="F248" s="40"/>
-    </row>
-    <row r="249" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B248" s="52"/>
+      <c r="C248" s="52"/>
+      <c r="D248" s="52"/>
+      <c r="E248" s="52"/>
+      <c r="F248" s="52"/>
+    </row>
+    <row r="249" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B249" s="15" t="s">
-        <v>320</v>
+        <v>328</v>
+      </c>
+      <c r="B249" s="42">
+        <v>1</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="D249" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B250" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+      <c r="B250" s="42">
+        <v>2</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D250" s="43" t="s">
+        <v>97</v>
       </c>
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
     </row>
-    <row r="251" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B251" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="B251" s="42">
+        <v>3</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D251" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B252" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="B252" s="42">
+        <v>4</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="D252" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
     </row>
-    <row r="253" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B253" s="15" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="B253" s="42">
+        <v>5</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D253" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D253" s="43" t="s">
+        <v>103</v>
       </c>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B254" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="B254" s="42">
+        <v>6</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="D254" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B255" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
+      </c>
+      <c r="B255" s="42">
+        <v>7</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>151</v>
+        <v>106</v>
+      </c>
+      <c r="D255" s="43" t="s">
+        <v>107</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B256" s="15" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+      <c r="B256" s="42">
+        <v>8</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="D256" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
     </row>
-    <row r="257" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B257" s="15" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="B257" s="42">
+        <v>9</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="D257" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="40" t="s">
+    <row r="258" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B258" s="42">
+        <v>10</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D258" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
+    </row>
+    <row r="259" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B259" s="52"/>
+      <c r="C259" s="52"/>
+      <c r="D259" s="52"/>
+      <c r="E259" s="52"/>
+      <c r="F259" s="52"/>
+    </row>
+    <row r="260" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B260" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
+    </row>
+    <row r="261" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="B258" s="40"/>
-      <c r="C258" s="40"/>
-      <c r="D258" s="40"/>
-      <c r="E258" s="40"/>
-      <c r="F258" s="40"/>
-    </row>
-    <row r="259" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="4" t="s">
+      <c r="B261" s="52"/>
+      <c r="C261" s="52"/>
+      <c r="D261" s="52"/>
+      <c r="E261" s="52"/>
+      <c r="F261" s="52"/>
+    </row>
+    <row r="262" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B262" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B259" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
-    </row>
-    <row r="260" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B260" s="40"/>
-      <c r="C260" s="40"/>
-      <c r="D260" s="40"/>
-      <c r="E260" s="40"/>
-      <c r="F260" s="40"/>
-    </row>
-    <row r="261" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B261" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C261" s="5" t="s">
+      <c r="C262" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
+    </row>
+    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C263" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D261" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-    </row>
-    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B262" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C262" s="5" t="s">
+      <c r="D263" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
-    </row>
-    <row r="263" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B263" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="41" t="s">
+    <row r="264" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+    </row>
+    <row r="265" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B265" s="56"/>
+      <c r="C265" s="56"/>
+      <c r="D265" s="56"/>
+      <c r="E265" s="56"/>
+      <c r="F265" s="56"/>
+    </row>
+    <row r="266" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B266" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+    </row>
+    <row r="267" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E267" s="5"/>
+      <c r="F267" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="B264" s="41"/>
-      <c r="C264" s="41"/>
-      <c r="D264" s="41"/>
-      <c r="E264" s="41"/>
-      <c r="F264" s="41"/>
-    </row>
-    <row r="265" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E265" s="10"/>
-      <c r="F265" s="10"/>
-    </row>
-    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B266" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D266" s="4" t="s">
+      <c r="B268" s="52"/>
+      <c r="C268" s="52"/>
+      <c r="D268" s="52"/>
+      <c r="E268" s="52"/>
+      <c r="F268" s="52"/>
+    </row>
+    <row r="269" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E266" s="5"/>
-      <c r="F266" s="4" t="s">
+      <c r="D269" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+    </row>
+    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E270" s="5"/>
+      <c r="F270" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="40" t="s">
+    <row r="271" spans="1:6" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="B267" s="40"/>
-      <c r="C267" s="40"/>
-      <c r="D267" s="40"/>
-      <c r="E267" s="40"/>
-      <c r="F267" s="40"/>
-    </row>
-    <row r="268" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10"/>
-    </row>
-    <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B269" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D269" s="5" t="s">
+      <c r="B271" s="52"/>
+      <c r="C271" s="52"/>
+      <c r="D271" s="52"/>
+      <c r="E271" s="52"/>
+      <c r="F271" s="52"/>
+    </row>
+    <row r="272" spans="1:6" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C272" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E269" s="5"/>
-      <c r="F269" s="4" t="s">
+      <c r="D272" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+    </row>
+    <row r="273" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E273" s="5"/>
+      <c r="F273" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="40" t="s">
+    <row r="274" spans="1:9" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="B270" s="40"/>
-      <c r="C270" s="40"/>
-      <c r="D270" s="40"/>
-      <c r="E270" s="40"/>
-      <c r="F270" s="40"/>
-    </row>
-    <row r="271" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B271" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10"/>
-    </row>
-    <row r="272" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B272" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D272" s="5" t="s">
+      <c r="B274" s="52"/>
+      <c r="C274" s="52"/>
+      <c r="D274" s="52"/>
+      <c r="E274" s="52"/>
+      <c r="F274" s="52"/>
+    </row>
+    <row r="275" spans="1:9" s="39" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E272" s="5"/>
-      <c r="F272" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="B273" s="40"/>
-      <c r="C273" s="40"/>
-      <c r="D273" s="40"/>
-      <c r="E273" s="40"/>
-      <c r="F273" s="40"/>
-    </row>
-    <row r="274" spans="1:6" s="46" customFormat="1" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C274" s="5" t="s">
+      <c r="D275" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D274" s="5" t="s">
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+    </row>
+    <row r="276" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B276" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E274" s="10"/>
-      <c r="F274" s="10"/>
-    </row>
-    <row r="275" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A275" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B275" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C275" s="4" t="s">
+      <c r="D276" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E275" s="5"/>
-      <c r="F275" s="4" t="s">
+      <c r="E276" s="5"/>
+      <c r="F276" s="4" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="277" spans="1:9" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="B277" s="51"/>
+      <c r="C277" s="51"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="51"/>
+      <c r="F277" s="51"/>
+      <c r="G277" s="45"/>
+      <c r="H277" s="45"/>
+      <c r="I277" s="45"/>
+    </row>
+    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B278" s="42">
+        <v>1</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D278" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="H278" s="39"/>
+      <c r="I278" s="39"/>
+    </row>
+    <row r="279" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B279" s="42">
+        <v>2</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D279" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="H279" s="39"/>
+      <c r="I279" s="39"/>
+    </row>
+    <row r="280" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B280" s="42">
+        <v>3</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D280" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="H280" s="39"/>
+      <c r="I280" s="39"/>
+    </row>
+    <row r="281" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B281" s="42">
+        <v>4</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D281" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="H281" s="39"/>
+      <c r="I281" s="39"/>
+    </row>
+    <row r="282" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B282" s="42">
+        <v>5</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D282" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="H282" s="39"/>
+      <c r="I282" s="39"/>
+    </row>
+    <row r="283" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B283" s="42">
+        <v>6</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D283" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="H283" s="39"/>
+      <c r="I283" s="39"/>
+    </row>
+    <row r="284" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B284" s="42">
+        <v>7</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D284" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="H284" s="39"/>
+      <c r="I284" s="39"/>
+    </row>
+    <row r="285" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B285" s="42">
+        <v>8</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D285" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="H285" s="39"/>
+      <c r="I285" s="39"/>
+    </row>
+    <row r="286" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B286" s="42">
+        <v>9</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D286" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="H286" s="39"/>
+      <c r="I286" s="39"/>
+    </row>
+    <row r="287" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B287" s="42">
+        <v>10</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D287" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="H287" s="39"/>
+      <c r="I287" s="39"/>
+    </row>
+    <row r="288" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="B288" s="51"/>
+      <c r="C288" s="51"/>
+      <c r="D288" s="51"/>
+      <c r="E288" s="51"/>
+      <c r="F288" s="51"/>
+      <c r="G288" s="46"/>
+      <c r="H288" s="46"/>
+      <c r="I288" s="46"/>
+    </row>
+    <row r="289" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B289" s="42">
+        <v>1</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D289" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E289" s="10"/>
+      <c r="F289" s="5"/>
+      <c r="I289" s="39"/>
+    </row>
+    <row r="290" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B290" s="42">
+        <v>2</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D290" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E290" s="10"/>
+      <c r="F290" s="5"/>
+      <c r="I290" s="39"/>
+    </row>
+    <row r="291" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B291" s="42">
+        <v>3</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D291" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E291" s="10"/>
+      <c r="F291" s="5"/>
+      <c r="I291" s="39"/>
+    </row>
+    <row r="292" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B292" s="42">
+        <v>4</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D292" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E292" s="10"/>
+      <c r="F292" s="5"/>
+      <c r="I292" s="39"/>
+    </row>
+    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B293" s="42">
+        <v>5</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D293" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E293" s="10"/>
+      <c r="F293" s="5"/>
+      <c r="I293" s="39"/>
+    </row>
+    <row r="294" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B294" s="42">
+        <v>6</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D294" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="H294" s="39"/>
+      <c r="I294" s="39"/>
+    </row>
+    <row r="295" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B295" s="42">
+        <v>7</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D295" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E295" s="10"/>
+      <c r="F295" s="5"/>
+      <c r="I295" s="39"/>
+    </row>
+    <row r="296" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B296" s="42">
+        <v>8</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D296" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E296" s="10"/>
+      <c r="F296" s="5"/>
+      <c r="I296" s="39"/>
+    </row>
+    <row r="297" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B297" s="42">
+        <v>9</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D297" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E297" s="10"/>
+      <c r="F297" s="5"/>
+      <c r="I297" s="39"/>
+    </row>
+    <row r="298" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B298" s="42">
+        <v>10</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D298" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E298" s="10"/>
+      <c r="F298" s="5"/>
+      <c r="I298" s="39"/>
+    </row>
+    <row r="299" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B299" s="42">
+        <v>11</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D299" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="E299" s="10"/>
+      <c r="F299" s="5"/>
+      <c r="I299" s="39"/>
+    </row>
+    <row r="300" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B300" s="42">
+        <v>12</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D300" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="E300" s="10"/>
+      <c r="F300" s="5"/>
+      <c r="I300" s="39"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
       <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="56">
+  <mergeCells count="58">
+    <mergeCell ref="A220:F220"/>
+    <mergeCell ref="A229:F229"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="A274:F274"/>
+    <mergeCell ref="A239:F239"/>
+    <mergeCell ref="A259:F259"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A248:F248"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A261:F261"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="A268:F268"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="A168:F168"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="A173:F173"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A288:F288"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:F7"/>
@@ -6740,47 +7307,6 @@
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A75:F75"/>
     <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A258:F258"/>
-    <mergeCell ref="A168:F168"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A248:F248"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A220:F220"/>
-    <mergeCell ref="A229:F229"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A260:F260"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="A267:F267"/>
-    <mergeCell ref="A270:F270"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A173:F173"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A92:F92"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
